--- a/xlsx/越南_intext.xlsx
+++ b/xlsx/越南_intext.xlsx
@@ -29,7 +29,7 @@
     <t>越南国旗</t>
   </si>
   <si>
-    <t>政策_政策_行政_越南</t>
+    <t>体育运动_体育运动_越南</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E5%9B%BD%E5%BE%BD</t>
@@ -5718,7 +5718,7 @@
         <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -5747,7 +5747,7 @@
         <v>4</v>
       </c>
       <c r="I3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -5776,7 +5776,7 @@
         <v>4</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -5805,7 +5805,7 @@
         <v>4</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -5834,7 +5834,7 @@
         <v>4</v>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -5863,7 +5863,7 @@
         <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -5892,7 +5892,7 @@
         <v>4</v>
       </c>
       <c r="I8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -5921,7 +5921,7 @@
         <v>4</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -5950,7 +5950,7 @@
         <v>4</v>
       </c>
       <c r="I10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -5979,7 +5979,7 @@
         <v>4</v>
       </c>
       <c r="I11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -6008,7 +6008,7 @@
         <v>4</v>
       </c>
       <c r="I12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -6037,7 +6037,7 @@
         <v>4</v>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -6066,7 +6066,7 @@
         <v>4</v>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -6095,7 +6095,7 @@
         <v>4</v>
       </c>
       <c r="I15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -6124,7 +6124,7 @@
         <v>4</v>
       </c>
       <c r="I16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -6153,7 +6153,7 @@
         <v>4</v>
       </c>
       <c r="I17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -6182,7 +6182,7 @@
         <v>4</v>
       </c>
       <c r="I18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -6211,7 +6211,7 @@
         <v>4</v>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -6240,7 +6240,7 @@
         <v>4</v>
       </c>
       <c r="I20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -6269,7 +6269,7 @@
         <v>4</v>
       </c>
       <c r="I21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -6298,7 +6298,7 @@
         <v>4</v>
       </c>
       <c r="I22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -6327,7 +6327,7 @@
         <v>4</v>
       </c>
       <c r="I23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -6356,7 +6356,7 @@
         <v>4</v>
       </c>
       <c r="I24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -6385,7 +6385,7 @@
         <v>4</v>
       </c>
       <c r="I25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -6414,7 +6414,7 @@
         <v>4</v>
       </c>
       <c r="I26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -6443,7 +6443,7 @@
         <v>4</v>
       </c>
       <c r="I27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -6472,7 +6472,7 @@
         <v>4</v>
       </c>
       <c r="I28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -6501,7 +6501,7 @@
         <v>4</v>
       </c>
       <c r="I29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -6530,7 +6530,7 @@
         <v>4</v>
       </c>
       <c r="I30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -6559,7 +6559,7 @@
         <v>4</v>
       </c>
       <c r="I31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -6588,7 +6588,7 @@
         <v>4</v>
       </c>
       <c r="I32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -6617,7 +6617,7 @@
         <v>4</v>
       </c>
       <c r="I33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -6646,7 +6646,7 @@
         <v>4</v>
       </c>
       <c r="I34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -6675,7 +6675,7 @@
         <v>4</v>
       </c>
       <c r="I35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -6704,7 +6704,7 @@
         <v>4</v>
       </c>
       <c r="I36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -6733,7 +6733,7 @@
         <v>4</v>
       </c>
       <c r="I37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -6762,7 +6762,7 @@
         <v>4</v>
       </c>
       <c r="I38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -6791,7 +6791,7 @@
         <v>4</v>
       </c>
       <c r="I39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -6820,7 +6820,7 @@
         <v>4</v>
       </c>
       <c r="I40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -6849,7 +6849,7 @@
         <v>4</v>
       </c>
       <c r="I41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -6878,7 +6878,7 @@
         <v>4</v>
       </c>
       <c r="I42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -6907,7 +6907,7 @@
         <v>4</v>
       </c>
       <c r="I43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -6936,7 +6936,7 @@
         <v>4</v>
       </c>
       <c r="I44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -6965,7 +6965,7 @@
         <v>4</v>
       </c>
       <c r="I45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -6994,7 +6994,7 @@
         <v>4</v>
       </c>
       <c r="I46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -7023,7 +7023,7 @@
         <v>4</v>
       </c>
       <c r="I47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -7052,7 +7052,7 @@
         <v>4</v>
       </c>
       <c r="I48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -7081,7 +7081,7 @@
         <v>4</v>
       </c>
       <c r="I49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -7110,7 +7110,7 @@
         <v>4</v>
       </c>
       <c r="I50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -7139,7 +7139,7 @@
         <v>4</v>
       </c>
       <c r="I51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -7168,7 +7168,7 @@
         <v>4</v>
       </c>
       <c r="I52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -7197,7 +7197,7 @@
         <v>4</v>
       </c>
       <c r="I53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -7226,7 +7226,7 @@
         <v>4</v>
       </c>
       <c r="I54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -7255,7 +7255,7 @@
         <v>4</v>
       </c>
       <c r="I55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -7284,7 +7284,7 @@
         <v>4</v>
       </c>
       <c r="I56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -7313,7 +7313,7 @@
         <v>4</v>
       </c>
       <c r="I57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -7342,7 +7342,7 @@
         <v>4</v>
       </c>
       <c r="I58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -7371,7 +7371,7 @@
         <v>4</v>
       </c>
       <c r="I59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -7400,7 +7400,7 @@
         <v>4</v>
       </c>
       <c r="I60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -7429,7 +7429,7 @@
         <v>4</v>
       </c>
       <c r="I61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -7452,13 +7452,13 @@
         <v>124</v>
       </c>
       <c r="G62" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H62" t="s">
         <v>4</v>
       </c>
       <c r="I62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -7487,7 +7487,7 @@
         <v>4</v>
       </c>
       <c r="I63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -7516,7 +7516,7 @@
         <v>4</v>
       </c>
       <c r="I64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -7545,7 +7545,7 @@
         <v>4</v>
       </c>
       <c r="I65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -7574,7 +7574,7 @@
         <v>4</v>
       </c>
       <c r="I66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -7603,7 +7603,7 @@
         <v>4</v>
       </c>
       <c r="I67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -7632,7 +7632,7 @@
         <v>4</v>
       </c>
       <c r="I68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -7661,7 +7661,7 @@
         <v>4</v>
       </c>
       <c r="I69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -7690,7 +7690,7 @@
         <v>4</v>
       </c>
       <c r="I70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -7719,7 +7719,7 @@
         <v>4</v>
       </c>
       <c r="I71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -7748,7 +7748,7 @@
         <v>4</v>
       </c>
       <c r="I72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -7777,7 +7777,7 @@
         <v>4</v>
       </c>
       <c r="I73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -7806,7 +7806,7 @@
         <v>4</v>
       </c>
       <c r="I74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -7835,7 +7835,7 @@
         <v>4</v>
       </c>
       <c r="I75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -7864,7 +7864,7 @@
         <v>4</v>
       </c>
       <c r="I76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -7893,7 +7893,7 @@
         <v>4</v>
       </c>
       <c r="I77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -7922,7 +7922,7 @@
         <v>4</v>
       </c>
       <c r="I78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -7951,7 +7951,7 @@
         <v>4</v>
       </c>
       <c r="I79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -7980,7 +7980,7 @@
         <v>4</v>
       </c>
       <c r="I80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -8009,7 +8009,7 @@
         <v>4</v>
       </c>
       <c r="I81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -8038,7 +8038,7 @@
         <v>4</v>
       </c>
       <c r="I82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -8067,7 +8067,7 @@
         <v>4</v>
       </c>
       <c r="I83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -8096,7 +8096,7 @@
         <v>4</v>
       </c>
       <c r="I84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -8125,7 +8125,7 @@
         <v>4</v>
       </c>
       <c r="I85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -8154,7 +8154,7 @@
         <v>4</v>
       </c>
       <c r="I86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -8183,7 +8183,7 @@
         <v>4</v>
       </c>
       <c r="I87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -8212,7 +8212,7 @@
         <v>4</v>
       </c>
       <c r="I88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -8241,7 +8241,7 @@
         <v>4</v>
       </c>
       <c r="I89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -8270,7 +8270,7 @@
         <v>4</v>
       </c>
       <c r="I90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -8299,7 +8299,7 @@
         <v>4</v>
       </c>
       <c r="I91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -8328,7 +8328,7 @@
         <v>4</v>
       </c>
       <c r="I92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -8357,7 +8357,7 @@
         <v>4</v>
       </c>
       <c r="I93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -8386,7 +8386,7 @@
         <v>4</v>
       </c>
       <c r="I94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -8415,7 +8415,7 @@
         <v>4</v>
       </c>
       <c r="I95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -8444,7 +8444,7 @@
         <v>4</v>
       </c>
       <c r="I96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -8473,7 +8473,7 @@
         <v>4</v>
       </c>
       <c r="I97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -8502,7 +8502,7 @@
         <v>4</v>
       </c>
       <c r="I98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -8531,7 +8531,7 @@
         <v>4</v>
       </c>
       <c r="I99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -8560,7 +8560,7 @@
         <v>4</v>
       </c>
       <c r="I100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -8589,7 +8589,7 @@
         <v>4</v>
       </c>
       <c r="I101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -8618,7 +8618,7 @@
         <v>4</v>
       </c>
       <c r="I102" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -8647,7 +8647,7 @@
         <v>4</v>
       </c>
       <c r="I103" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -8676,7 +8676,7 @@
         <v>4</v>
       </c>
       <c r="I104" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -8705,7 +8705,7 @@
         <v>4</v>
       </c>
       <c r="I105" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -8734,7 +8734,7 @@
         <v>4</v>
       </c>
       <c r="I106" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -8763,7 +8763,7 @@
         <v>4</v>
       </c>
       <c r="I107" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -8792,7 +8792,7 @@
         <v>4</v>
       </c>
       <c r="I108" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -8821,7 +8821,7 @@
         <v>4</v>
       </c>
       <c r="I109" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -8850,7 +8850,7 @@
         <v>4</v>
       </c>
       <c r="I110" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -8879,7 +8879,7 @@
         <v>4</v>
       </c>
       <c r="I111" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -8908,7 +8908,7 @@
         <v>4</v>
       </c>
       <c r="I112" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -8937,7 +8937,7 @@
         <v>4</v>
       </c>
       <c r="I113" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -8966,7 +8966,7 @@
         <v>4</v>
       </c>
       <c r="I114" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -8995,7 +8995,7 @@
         <v>4</v>
       </c>
       <c r="I115" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -9024,7 +9024,7 @@
         <v>4</v>
       </c>
       <c r="I116" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -9053,7 +9053,7 @@
         <v>4</v>
       </c>
       <c r="I117" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -9082,7 +9082,7 @@
         <v>4</v>
       </c>
       <c r="I118" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -9111,7 +9111,7 @@
         <v>4</v>
       </c>
       <c r="I119" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -9140,7 +9140,7 @@
         <v>4</v>
       </c>
       <c r="I120" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -9169,7 +9169,7 @@
         <v>4</v>
       </c>
       <c r="I121" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -9198,7 +9198,7 @@
         <v>4</v>
       </c>
       <c r="I122" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -9227,7 +9227,7 @@
         <v>4</v>
       </c>
       <c r="I123" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -9256,7 +9256,7 @@
         <v>4</v>
       </c>
       <c r="I124" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -9285,7 +9285,7 @@
         <v>4</v>
       </c>
       <c r="I125" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -9314,7 +9314,7 @@
         <v>4</v>
       </c>
       <c r="I126" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -9343,7 +9343,7 @@
         <v>4</v>
       </c>
       <c r="I127" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -9372,7 +9372,7 @@
         <v>4</v>
       </c>
       <c r="I128" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -9401,7 +9401,7 @@
         <v>4</v>
       </c>
       <c r="I129" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -9430,7 +9430,7 @@
         <v>4</v>
       </c>
       <c r="I130" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -9459,7 +9459,7 @@
         <v>4</v>
       </c>
       <c r="I131" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -9488,7 +9488,7 @@
         <v>4</v>
       </c>
       <c r="I132" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -9517,7 +9517,7 @@
         <v>4</v>
       </c>
       <c r="I133" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -9546,7 +9546,7 @@
         <v>4</v>
       </c>
       <c r="I134" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -9575,7 +9575,7 @@
         <v>4</v>
       </c>
       <c r="I135" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -9604,7 +9604,7 @@
         <v>4</v>
       </c>
       <c r="I136" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -9633,7 +9633,7 @@
         <v>4</v>
       </c>
       <c r="I137" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -9662,7 +9662,7 @@
         <v>4</v>
       </c>
       <c r="I138" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -9691,7 +9691,7 @@
         <v>4</v>
       </c>
       <c r="I139" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -9720,7 +9720,7 @@
         <v>4</v>
       </c>
       <c r="I140" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -9749,7 +9749,7 @@
         <v>4</v>
       </c>
       <c r="I141" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -9778,7 +9778,7 @@
         <v>4</v>
       </c>
       <c r="I142" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -9807,7 +9807,7 @@
         <v>4</v>
       </c>
       <c r="I143" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -9836,7 +9836,7 @@
         <v>4</v>
       </c>
       <c r="I144" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -9865,7 +9865,7 @@
         <v>4</v>
       </c>
       <c r="I145" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -9894,7 +9894,7 @@
         <v>4</v>
       </c>
       <c r="I146" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -9923,7 +9923,7 @@
         <v>4</v>
       </c>
       <c r="I147" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -9952,7 +9952,7 @@
         <v>4</v>
       </c>
       <c r="I148" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -9981,7 +9981,7 @@
         <v>4</v>
       </c>
       <c r="I149" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -10010,7 +10010,7 @@
         <v>4</v>
       </c>
       <c r="I150" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -10039,7 +10039,7 @@
         <v>4</v>
       </c>
       <c r="I151" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -10068,7 +10068,7 @@
         <v>4</v>
       </c>
       <c r="I152" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -10097,7 +10097,7 @@
         <v>4</v>
       </c>
       <c r="I153" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -10126,7 +10126,7 @@
         <v>4</v>
       </c>
       <c r="I154" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -10155,7 +10155,7 @@
         <v>4</v>
       </c>
       <c r="I155" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -10184,7 +10184,7 @@
         <v>4</v>
       </c>
       <c r="I156" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -10213,7 +10213,7 @@
         <v>4</v>
       </c>
       <c r="I157" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -10242,7 +10242,7 @@
         <v>4</v>
       </c>
       <c r="I158" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -10271,7 +10271,7 @@
         <v>4</v>
       </c>
       <c r="I159" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -10300,7 +10300,7 @@
         <v>4</v>
       </c>
       <c r="I160" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:9">
@@ -10329,7 +10329,7 @@
         <v>4</v>
       </c>
       <c r="I161" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -10358,7 +10358,7 @@
         <v>4</v>
       </c>
       <c r="I162" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:9">
@@ -10387,7 +10387,7 @@
         <v>4</v>
       </c>
       <c r="I163" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -10416,7 +10416,7 @@
         <v>4</v>
       </c>
       <c r="I164" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -10445,7 +10445,7 @@
         <v>4</v>
       </c>
       <c r="I165" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:9">
@@ -10474,7 +10474,7 @@
         <v>4</v>
       </c>
       <c r="I166" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -10503,7 +10503,7 @@
         <v>4</v>
       </c>
       <c r="I167" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:9">
@@ -10532,7 +10532,7 @@
         <v>4</v>
       </c>
       <c r="I168" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:9">
@@ -10561,7 +10561,7 @@
         <v>4</v>
       </c>
       <c r="I169" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:9">
@@ -10590,7 +10590,7 @@
         <v>4</v>
       </c>
       <c r="I170" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:9">
@@ -10619,7 +10619,7 @@
         <v>4</v>
       </c>
       <c r="I171" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:9">
@@ -10648,7 +10648,7 @@
         <v>4</v>
       </c>
       <c r="I172" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:9">
@@ -10677,7 +10677,7 @@
         <v>4</v>
       </c>
       <c r="I173" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:9">
@@ -10706,7 +10706,7 @@
         <v>4</v>
       </c>
       <c r="I174" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:9">
@@ -10735,7 +10735,7 @@
         <v>4</v>
       </c>
       <c r="I175" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:9">
@@ -10764,7 +10764,7 @@
         <v>4</v>
       </c>
       <c r="I176" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:9">
@@ -10793,7 +10793,7 @@
         <v>4</v>
       </c>
       <c r="I177" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:9">
@@ -10822,7 +10822,7 @@
         <v>4</v>
       </c>
       <c r="I178" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:9">
@@ -10851,7 +10851,7 @@
         <v>4</v>
       </c>
       <c r="I179" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:9">
@@ -10880,7 +10880,7 @@
         <v>4</v>
       </c>
       <c r="I180" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:9">
@@ -10909,7 +10909,7 @@
         <v>4</v>
       </c>
       <c r="I181" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:9">
@@ -10938,7 +10938,7 @@
         <v>4</v>
       </c>
       <c r="I182" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:9">
@@ -10967,7 +10967,7 @@
         <v>4</v>
       </c>
       <c r="I183" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:9">
@@ -10996,7 +10996,7 @@
         <v>4</v>
       </c>
       <c r="I184" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:9">
@@ -11025,7 +11025,7 @@
         <v>4</v>
       </c>
       <c r="I185" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:9">
@@ -11054,7 +11054,7 @@
         <v>4</v>
       </c>
       <c r="I186" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:9">
@@ -11083,7 +11083,7 @@
         <v>4</v>
       </c>
       <c r="I187" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:9">
@@ -11112,7 +11112,7 @@
         <v>4</v>
       </c>
       <c r="I188" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:9">
@@ -11141,7 +11141,7 @@
         <v>4</v>
       </c>
       <c r="I189" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:9">
@@ -11170,7 +11170,7 @@
         <v>4</v>
       </c>
       <c r="I190" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:9">
@@ -11199,7 +11199,7 @@
         <v>4</v>
       </c>
       <c r="I191" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:9">
@@ -11228,7 +11228,7 @@
         <v>4</v>
       </c>
       <c r="I192" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:9">
@@ -11257,7 +11257,7 @@
         <v>4</v>
       </c>
       <c r="I193" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:9">
@@ -11286,7 +11286,7 @@
         <v>4</v>
       </c>
       <c r="I194" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:9">
@@ -11315,7 +11315,7 @@
         <v>4</v>
       </c>
       <c r="I195" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:9">
@@ -11344,7 +11344,7 @@
         <v>4</v>
       </c>
       <c r="I196" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:9">
@@ -11373,7 +11373,7 @@
         <v>4</v>
       </c>
       <c r="I197" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:9">
@@ -11402,7 +11402,7 @@
         <v>4</v>
       </c>
       <c r="I198" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:9">
@@ -11431,7 +11431,7 @@
         <v>4</v>
       </c>
       <c r="I199" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:9">
@@ -11460,7 +11460,7 @@
         <v>4</v>
       </c>
       <c r="I200" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:9">
@@ -11489,7 +11489,7 @@
         <v>4</v>
       </c>
       <c r="I201" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:9">
@@ -11518,7 +11518,7 @@
         <v>4</v>
       </c>
       <c r="I202" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:9">
@@ -11547,7 +11547,7 @@
         <v>4</v>
       </c>
       <c r="I203" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:9">
@@ -11576,7 +11576,7 @@
         <v>4</v>
       </c>
       <c r="I204" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:9">
@@ -11605,7 +11605,7 @@
         <v>4</v>
       </c>
       <c r="I205" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:9">
@@ -11634,7 +11634,7 @@
         <v>4</v>
       </c>
       <c r="I206" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:9">
@@ -11663,7 +11663,7 @@
         <v>4</v>
       </c>
       <c r="I207" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:9">
@@ -11692,7 +11692,7 @@
         <v>4</v>
       </c>
       <c r="I208" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:9">
@@ -11721,7 +11721,7 @@
         <v>4</v>
       </c>
       <c r="I209" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:9">
@@ -11750,7 +11750,7 @@
         <v>4</v>
       </c>
       <c r="I210" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:9">
@@ -11779,7 +11779,7 @@
         <v>4</v>
       </c>
       <c r="I211" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:9">
@@ -11808,7 +11808,7 @@
         <v>4</v>
       </c>
       <c r="I212" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:9">
@@ -11837,7 +11837,7 @@
         <v>4</v>
       </c>
       <c r="I213" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:9">
@@ -11866,7 +11866,7 @@
         <v>4</v>
       </c>
       <c r="I214" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:9">
@@ -11895,7 +11895,7 @@
         <v>4</v>
       </c>
       <c r="I215" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:9">
@@ -11924,7 +11924,7 @@
         <v>4</v>
       </c>
       <c r="I216" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:9">
@@ -11953,7 +11953,7 @@
         <v>4</v>
       </c>
       <c r="I217" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:9">
@@ -11982,7 +11982,7 @@
         <v>4</v>
       </c>
       <c r="I218" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:9">
@@ -12011,7 +12011,7 @@
         <v>4</v>
       </c>
       <c r="I219" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:9">
@@ -12040,7 +12040,7 @@
         <v>4</v>
       </c>
       <c r="I220" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:9">
@@ -12069,7 +12069,7 @@
         <v>4</v>
       </c>
       <c r="I221" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:9">
@@ -12098,7 +12098,7 @@
         <v>4</v>
       </c>
       <c r="I222" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:9">
@@ -12127,7 +12127,7 @@
         <v>4</v>
       </c>
       <c r="I223" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:9">
@@ -12156,7 +12156,7 @@
         <v>4</v>
       </c>
       <c r="I224" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:9">
@@ -12185,7 +12185,7 @@
         <v>4</v>
       </c>
       <c r="I225" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:9">
@@ -12214,7 +12214,7 @@
         <v>4</v>
       </c>
       <c r="I226" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:9">
@@ -12243,7 +12243,7 @@
         <v>4</v>
       </c>
       <c r="I227" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:9">
@@ -12272,7 +12272,7 @@
         <v>4</v>
       </c>
       <c r="I228" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:9">
@@ -12301,7 +12301,7 @@
         <v>4</v>
       </c>
       <c r="I229" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:9">
@@ -12330,7 +12330,7 @@
         <v>4</v>
       </c>
       <c r="I230" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:9">
@@ -12359,7 +12359,7 @@
         <v>4</v>
       </c>
       <c r="I231" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:9">
@@ -12388,7 +12388,7 @@
         <v>4</v>
       </c>
       <c r="I232" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:9">
@@ -12417,7 +12417,7 @@
         <v>4</v>
       </c>
       <c r="I233" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:9">
@@ -12446,7 +12446,7 @@
         <v>4</v>
       </c>
       <c r="I234" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:9">
@@ -12475,7 +12475,7 @@
         <v>4</v>
       </c>
       <c r="I235" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:9">
@@ -12504,7 +12504,7 @@
         <v>4</v>
       </c>
       <c r="I236" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:9">
@@ -12533,7 +12533,7 @@
         <v>4</v>
       </c>
       <c r="I237" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:9">
@@ -12562,7 +12562,7 @@
         <v>4</v>
       </c>
       <c r="I238" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:9">
@@ -12591,7 +12591,7 @@
         <v>4</v>
       </c>
       <c r="I239" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:9">
@@ -12620,7 +12620,7 @@
         <v>4</v>
       </c>
       <c r="I240" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:9">
@@ -12649,7 +12649,7 @@
         <v>4</v>
       </c>
       <c r="I241" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:9">
@@ -12678,7 +12678,7 @@
         <v>4</v>
       </c>
       <c r="I242" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:9">
@@ -12707,7 +12707,7 @@
         <v>4</v>
       </c>
       <c r="I243" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:9">
@@ -12736,7 +12736,7 @@
         <v>4</v>
       </c>
       <c r="I244" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:9">
@@ -12765,7 +12765,7 @@
         <v>4</v>
       </c>
       <c r="I245" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:9">
@@ -12794,7 +12794,7 @@
         <v>4</v>
       </c>
       <c r="I246" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:9">
@@ -12823,7 +12823,7 @@
         <v>4</v>
       </c>
       <c r="I247" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:9">
@@ -12852,7 +12852,7 @@
         <v>4</v>
       </c>
       <c r="I248" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:9">
@@ -12881,7 +12881,7 @@
         <v>4</v>
       </c>
       <c r="I249" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:9">
@@ -12910,7 +12910,7 @@
         <v>4</v>
       </c>
       <c r="I250" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:9">
@@ -12939,7 +12939,7 @@
         <v>4</v>
       </c>
       <c r="I251" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:9">
@@ -12968,7 +12968,7 @@
         <v>4</v>
       </c>
       <c r="I252" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:9">
@@ -12997,7 +12997,7 @@
         <v>4</v>
       </c>
       <c r="I253" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:9">
@@ -13026,7 +13026,7 @@
         <v>4</v>
       </c>
       <c r="I254" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:9">
@@ -13055,7 +13055,7 @@
         <v>4</v>
       </c>
       <c r="I255" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:9">
@@ -13084,7 +13084,7 @@
         <v>4</v>
       </c>
       <c r="I256" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:9">
@@ -13113,7 +13113,7 @@
         <v>4</v>
       </c>
       <c r="I257" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:9">
@@ -13142,7 +13142,7 @@
         <v>4</v>
       </c>
       <c r="I258" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:9">
@@ -13171,7 +13171,7 @@
         <v>4</v>
       </c>
       <c r="I259" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:9">
@@ -13200,7 +13200,7 @@
         <v>4</v>
       </c>
       <c r="I260" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:9">
@@ -13229,7 +13229,7 @@
         <v>4</v>
       </c>
       <c r="I261" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:9">
@@ -13258,7 +13258,7 @@
         <v>4</v>
       </c>
       <c r="I262" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:9">
@@ -13287,7 +13287,7 @@
         <v>4</v>
       </c>
       <c r="I263" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:9">
@@ -13316,7 +13316,7 @@
         <v>4</v>
       </c>
       <c r="I264" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:9">
@@ -13345,7 +13345,7 @@
         <v>4</v>
       </c>
       <c r="I265" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:9">
@@ -13374,7 +13374,7 @@
         <v>4</v>
       </c>
       <c r="I266" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:9">
@@ -13403,7 +13403,7 @@
         <v>4</v>
       </c>
       <c r="I267" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:9">
@@ -13432,7 +13432,7 @@
         <v>4</v>
       </c>
       <c r="I268" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:9">
@@ -13461,7 +13461,7 @@
         <v>4</v>
       </c>
       <c r="I269" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:9">
@@ -13490,7 +13490,7 @@
         <v>4</v>
       </c>
       <c r="I270" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:9">
@@ -13519,7 +13519,7 @@
         <v>4</v>
       </c>
       <c r="I271" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:9">
@@ -13548,7 +13548,7 @@
         <v>4</v>
       </c>
       <c r="I272" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:9">
@@ -13577,7 +13577,7 @@
         <v>4</v>
       </c>
       <c r="I273" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:9">
@@ -13606,7 +13606,7 @@
         <v>4</v>
       </c>
       <c r="I274" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:9">
@@ -13635,7 +13635,7 @@
         <v>4</v>
       </c>
       <c r="I275" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:9">
@@ -13664,7 +13664,7 @@
         <v>4</v>
       </c>
       <c r="I276" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:9">
@@ -13693,7 +13693,7 @@
         <v>4</v>
       </c>
       <c r="I277" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:9">
@@ -13722,7 +13722,7 @@
         <v>4</v>
       </c>
       <c r="I278" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:9">
@@ -13751,7 +13751,7 @@
         <v>4</v>
       </c>
       <c r="I279" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:9">
@@ -13780,7 +13780,7 @@
         <v>4</v>
       </c>
       <c r="I280" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:9">
@@ -13809,7 +13809,7 @@
         <v>4</v>
       </c>
       <c r="I281" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:9">
@@ -13838,7 +13838,7 @@
         <v>4</v>
       </c>
       <c r="I282" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:9">
@@ -13867,7 +13867,7 @@
         <v>4</v>
       </c>
       <c r="I283" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:9">
@@ -13896,7 +13896,7 @@
         <v>4</v>
       </c>
       <c r="I284" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:9">
@@ -13925,7 +13925,7 @@
         <v>4</v>
       </c>
       <c r="I285" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:9">
@@ -13954,7 +13954,7 @@
         <v>4</v>
       </c>
       <c r="I286" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:9">
@@ -13983,7 +13983,7 @@
         <v>4</v>
       </c>
       <c r="I287" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:9">
@@ -14012,7 +14012,7 @@
         <v>4</v>
       </c>
       <c r="I288" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:9">
@@ -14041,7 +14041,7 @@
         <v>4</v>
       </c>
       <c r="I289" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:9">
@@ -14070,7 +14070,7 @@
         <v>4</v>
       </c>
       <c r="I290" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:9">
@@ -14099,7 +14099,7 @@
         <v>4</v>
       </c>
       <c r="I291" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:9">
@@ -14128,7 +14128,7 @@
         <v>4</v>
       </c>
       <c r="I292" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:9">
@@ -14157,7 +14157,7 @@
         <v>4</v>
       </c>
       <c r="I293" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:9">
@@ -14186,7 +14186,7 @@
         <v>4</v>
       </c>
       <c r="I294" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:9">
@@ -14215,7 +14215,7 @@
         <v>4</v>
       </c>
       <c r="I295" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:9">
@@ -14244,7 +14244,7 @@
         <v>4</v>
       </c>
       <c r="I296" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:9">
@@ -14273,7 +14273,7 @@
         <v>4</v>
       </c>
       <c r="I297" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:9">
@@ -14302,7 +14302,7 @@
         <v>4</v>
       </c>
       <c r="I298" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:9">
@@ -14331,7 +14331,7 @@
         <v>4</v>
       </c>
       <c r="I299" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:9">
@@ -14360,7 +14360,7 @@
         <v>4</v>
       </c>
       <c r="I300" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:9">
@@ -14389,7 +14389,7 @@
         <v>4</v>
       </c>
       <c r="I301" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:9">
@@ -14418,7 +14418,7 @@
         <v>4</v>
       </c>
       <c r="I302" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:9">
@@ -14447,7 +14447,7 @@
         <v>4</v>
       </c>
       <c r="I303" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:9">
@@ -14476,7 +14476,7 @@
         <v>4</v>
       </c>
       <c r="I304" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:9">
@@ -14505,7 +14505,7 @@
         <v>4</v>
       </c>
       <c r="I305" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:9">
@@ -14534,7 +14534,7 @@
         <v>4</v>
       </c>
       <c r="I306" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:9">
@@ -14563,7 +14563,7 @@
         <v>4</v>
       </c>
       <c r="I307" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:9">
@@ -14592,7 +14592,7 @@
         <v>4</v>
       </c>
       <c r="I308" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:9">
@@ -14621,7 +14621,7 @@
         <v>4</v>
       </c>
       <c r="I309" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:9">
@@ -14650,7 +14650,7 @@
         <v>4</v>
       </c>
       <c r="I310" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:9">
@@ -14679,7 +14679,7 @@
         <v>4</v>
       </c>
       <c r="I311" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:9">
@@ -14708,7 +14708,7 @@
         <v>4</v>
       </c>
       <c r="I312" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:9">
@@ -14737,7 +14737,7 @@
         <v>4</v>
       </c>
       <c r="I313" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:9">
@@ -14766,7 +14766,7 @@
         <v>4</v>
       </c>
       <c r="I314" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:9">
@@ -14795,7 +14795,7 @@
         <v>4</v>
       </c>
       <c r="I315" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:9">
@@ -14824,7 +14824,7 @@
         <v>4</v>
       </c>
       <c r="I316" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:9">
@@ -14853,7 +14853,7 @@
         <v>4</v>
       </c>
       <c r="I317" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:9">
@@ -14882,7 +14882,7 @@
         <v>4</v>
       </c>
       <c r="I318" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:9">
@@ -14911,7 +14911,7 @@
         <v>4</v>
       </c>
       <c r="I319" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:9">
@@ -14940,7 +14940,7 @@
         <v>4</v>
       </c>
       <c r="I320" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:9">
@@ -14969,7 +14969,7 @@
         <v>4</v>
       </c>
       <c r="I321" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:9">
@@ -14998,7 +14998,7 @@
         <v>4</v>
       </c>
       <c r="I322" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:9">
@@ -15027,7 +15027,7 @@
         <v>4</v>
       </c>
       <c r="I323" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:9">
@@ -15056,7 +15056,7 @@
         <v>4</v>
       </c>
       <c r="I324" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:9">
@@ -15085,7 +15085,7 @@
         <v>4</v>
       </c>
       <c r="I325" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:9">
@@ -15114,7 +15114,7 @@
         <v>4</v>
       </c>
       <c r="I326" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:9">
@@ -15143,7 +15143,7 @@
         <v>4</v>
       </c>
       <c r="I327" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:9">
@@ -15172,7 +15172,7 @@
         <v>4</v>
       </c>
       <c r="I328" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:9">
@@ -15201,7 +15201,7 @@
         <v>4</v>
       </c>
       <c r="I329" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:9">
@@ -15230,7 +15230,7 @@
         <v>4</v>
       </c>
       <c r="I330" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:9">
@@ -15259,7 +15259,7 @@
         <v>4</v>
       </c>
       <c r="I331" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:9">
@@ -15288,7 +15288,7 @@
         <v>4</v>
       </c>
       <c r="I332" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:9">
@@ -15317,7 +15317,7 @@
         <v>4</v>
       </c>
       <c r="I333" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:9">
@@ -15346,7 +15346,7 @@
         <v>4</v>
       </c>
       <c r="I334" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:9">
@@ -15375,7 +15375,7 @@
         <v>4</v>
       </c>
       <c r="I335" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:9">
@@ -15404,7 +15404,7 @@
         <v>4</v>
       </c>
       <c r="I336" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:9">
@@ -15433,7 +15433,7 @@
         <v>4</v>
       </c>
       <c r="I337" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:9">
@@ -15462,7 +15462,7 @@
         <v>4</v>
       </c>
       <c r="I338" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:9">
@@ -15491,7 +15491,7 @@
         <v>4</v>
       </c>
       <c r="I339" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:9">
@@ -15520,7 +15520,7 @@
         <v>4</v>
       </c>
       <c r="I340" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:9">
@@ -15549,7 +15549,7 @@
         <v>4</v>
       </c>
       <c r="I341" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:9">
@@ -15578,7 +15578,7 @@
         <v>4</v>
       </c>
       <c r="I342" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:9">
@@ -15607,7 +15607,7 @@
         <v>4</v>
       </c>
       <c r="I343" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:9">
@@ -15636,7 +15636,7 @@
         <v>4</v>
       </c>
       <c r="I344" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:9">
@@ -15665,7 +15665,7 @@
         <v>4</v>
       </c>
       <c r="I345" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:9">
@@ -15694,7 +15694,7 @@
         <v>4</v>
       </c>
       <c r="I346" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:9">
@@ -15723,7 +15723,7 @@
         <v>4</v>
       </c>
       <c r="I347" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:9">
@@ -15752,7 +15752,7 @@
         <v>4</v>
       </c>
       <c r="I348" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:9">
@@ -15781,7 +15781,7 @@
         <v>4</v>
       </c>
       <c r="I349" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:9">
@@ -15810,7 +15810,7 @@
         <v>4</v>
       </c>
       <c r="I350" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:9">
@@ -15839,7 +15839,7 @@
         <v>4</v>
       </c>
       <c r="I351" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:9">
@@ -15868,7 +15868,7 @@
         <v>4</v>
       </c>
       <c r="I352" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:9">
@@ -15897,7 +15897,7 @@
         <v>4</v>
       </c>
       <c r="I353" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:9">
@@ -15926,7 +15926,7 @@
         <v>4</v>
       </c>
       <c r="I354" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:9">
@@ -15955,7 +15955,7 @@
         <v>4</v>
       </c>
       <c r="I355" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:9">
@@ -15984,7 +15984,7 @@
         <v>4</v>
       </c>
       <c r="I356" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:9">
@@ -16013,7 +16013,7 @@
         <v>4</v>
       </c>
       <c r="I357" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:9">
@@ -16042,7 +16042,7 @@
         <v>4</v>
       </c>
       <c r="I358" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:9">
@@ -16071,7 +16071,7 @@
         <v>4</v>
       </c>
       <c r="I359" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:9">
@@ -16100,7 +16100,7 @@
         <v>4</v>
       </c>
       <c r="I360" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:9">
@@ -16129,7 +16129,7 @@
         <v>4</v>
       </c>
       <c r="I361" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:9">
@@ -16158,7 +16158,7 @@
         <v>4</v>
       </c>
       <c r="I362" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:9">
@@ -16187,7 +16187,7 @@
         <v>4</v>
       </c>
       <c r="I363" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:9">
@@ -16216,7 +16216,7 @@
         <v>4</v>
       </c>
       <c r="I364" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:9">
@@ -16245,7 +16245,7 @@
         <v>4</v>
       </c>
       <c r="I365" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:9">
@@ -16274,7 +16274,7 @@
         <v>4</v>
       </c>
       <c r="I366" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:9">
@@ -16303,7 +16303,7 @@
         <v>4</v>
       </c>
       <c r="I367" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:9">
@@ -16332,7 +16332,7 @@
         <v>4</v>
       </c>
       <c r="I368" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:9">
@@ -16361,7 +16361,7 @@
         <v>4</v>
       </c>
       <c r="I369" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:9">
@@ -16390,7 +16390,7 @@
         <v>4</v>
       </c>
       <c r="I370" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:9">
@@ -16419,7 +16419,7 @@
         <v>4</v>
       </c>
       <c r="I371" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:9">
@@ -16448,7 +16448,7 @@
         <v>4</v>
       </c>
       <c r="I372" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:9">
@@ -16477,7 +16477,7 @@
         <v>4</v>
       </c>
       <c r="I373" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:9">
@@ -16506,7 +16506,7 @@
         <v>4</v>
       </c>
       <c r="I374" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:9">
@@ -16535,7 +16535,7 @@
         <v>4</v>
       </c>
       <c r="I375" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:9">
@@ -16564,7 +16564,7 @@
         <v>4</v>
       </c>
       <c r="I376" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:9">
@@ -16593,7 +16593,7 @@
         <v>4</v>
       </c>
       <c r="I377" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:9">
@@ -16622,7 +16622,7 @@
         <v>4</v>
       </c>
       <c r="I378" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:9">
@@ -16651,7 +16651,7 @@
         <v>4</v>
       </c>
       <c r="I379" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:9">
@@ -16680,7 +16680,7 @@
         <v>4</v>
       </c>
       <c r="I380" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:9">
@@ -16709,7 +16709,7 @@
         <v>4</v>
       </c>
       <c r="I381" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:9">
@@ -16738,7 +16738,7 @@
         <v>4</v>
       </c>
       <c r="I382" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:9">
@@ -16767,7 +16767,7 @@
         <v>4</v>
       </c>
       <c r="I383" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:9">
@@ -16796,7 +16796,7 @@
         <v>4</v>
       </c>
       <c r="I384" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:9">
@@ -16825,7 +16825,7 @@
         <v>4</v>
       </c>
       <c r="I385" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:9">
@@ -16854,7 +16854,7 @@
         <v>4</v>
       </c>
       <c r="I386" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:9">
@@ -16883,7 +16883,7 @@
         <v>4</v>
       </c>
       <c r="I387" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:9">
@@ -16912,7 +16912,7 @@
         <v>4</v>
       </c>
       <c r="I388" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:9">
@@ -16941,7 +16941,7 @@
         <v>4</v>
       </c>
       <c r="I389" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:9">
@@ -16970,7 +16970,7 @@
         <v>4</v>
       </c>
       <c r="I390" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:9">
@@ -16999,7 +16999,7 @@
         <v>4</v>
       </c>
       <c r="I391" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:9">
@@ -17028,7 +17028,7 @@
         <v>4</v>
       </c>
       <c r="I392" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:9">
@@ -17057,7 +17057,7 @@
         <v>4</v>
       </c>
       <c r="I393" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:9">
@@ -17086,7 +17086,7 @@
         <v>4</v>
       </c>
       <c r="I394" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:9">
@@ -17115,7 +17115,7 @@
         <v>4</v>
       </c>
       <c r="I395" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:9">
@@ -17144,7 +17144,7 @@
         <v>4</v>
       </c>
       <c r="I396" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:9">
@@ -17173,7 +17173,7 @@
         <v>4</v>
       </c>
       <c r="I397" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:9">
@@ -17202,7 +17202,7 @@
         <v>4</v>
       </c>
       <c r="I398" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:9">
@@ -17231,7 +17231,7 @@
         <v>4</v>
       </c>
       <c r="I399" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:9">
@@ -17260,7 +17260,7 @@
         <v>4</v>
       </c>
       <c r="I400" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:9">
@@ -17289,7 +17289,7 @@
         <v>4</v>
       </c>
       <c r="I401" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:9">
@@ -17318,7 +17318,7 @@
         <v>4</v>
       </c>
       <c r="I402" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:9">
@@ -17347,7 +17347,7 @@
         <v>4</v>
       </c>
       <c r="I403" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:9">
@@ -17376,7 +17376,7 @@
         <v>4</v>
       </c>
       <c r="I404" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:9">
@@ -17405,7 +17405,7 @@
         <v>4</v>
       </c>
       <c r="I405" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:9">
@@ -17434,7 +17434,7 @@
         <v>4</v>
       </c>
       <c r="I406" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:9">
@@ -17463,7 +17463,7 @@
         <v>4</v>
       </c>
       <c r="I407" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:9">
@@ -17492,7 +17492,7 @@
         <v>4</v>
       </c>
       <c r="I408" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:9">
@@ -17521,7 +17521,7 @@
         <v>4</v>
       </c>
       <c r="I409" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:9">
@@ -17550,7 +17550,7 @@
         <v>4</v>
       </c>
       <c r="I410" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:9">
@@ -17579,7 +17579,7 @@
         <v>4</v>
       </c>
       <c r="I411" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:9">
@@ -17608,7 +17608,7 @@
         <v>4</v>
       </c>
       <c r="I412" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:9">
@@ -17637,7 +17637,7 @@
         <v>4</v>
       </c>
       <c r="I413" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:9">
@@ -17666,7 +17666,7 @@
         <v>4</v>
       </c>
       <c r="I414" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:9">
@@ -17695,7 +17695,7 @@
         <v>4</v>
       </c>
       <c r="I415" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:9">
@@ -17724,7 +17724,7 @@
         <v>4</v>
       </c>
       <c r="I416" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:9">
@@ -17753,7 +17753,7 @@
         <v>4</v>
       </c>
       <c r="I417" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:9">
@@ -17782,7 +17782,7 @@
         <v>4</v>
       </c>
       <c r="I418" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:9">
@@ -17811,7 +17811,7 @@
         <v>4</v>
       </c>
       <c r="I419" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:9">
@@ -17840,7 +17840,7 @@
         <v>4</v>
       </c>
       <c r="I420" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:9">
@@ -17869,7 +17869,7 @@
         <v>4</v>
       </c>
       <c r="I421" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:9">
@@ -17898,7 +17898,7 @@
         <v>4</v>
       </c>
       <c r="I422" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:9">
@@ -17927,7 +17927,7 @@
         <v>4</v>
       </c>
       <c r="I423" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:9">
@@ -17956,7 +17956,7 @@
         <v>4</v>
       </c>
       <c r="I424" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:9">
@@ -17985,7 +17985,7 @@
         <v>4</v>
       </c>
       <c r="I425" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:9">
@@ -18014,7 +18014,7 @@
         <v>4</v>
       </c>
       <c r="I426" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:9">
@@ -18043,7 +18043,7 @@
         <v>4</v>
       </c>
       <c r="I427" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:9">
@@ -18072,7 +18072,7 @@
         <v>4</v>
       </c>
       <c r="I428" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:9">
@@ -18101,7 +18101,7 @@
         <v>4</v>
       </c>
       <c r="I429" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:9">
@@ -18130,7 +18130,7 @@
         <v>4</v>
       </c>
       <c r="I430" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:9">
@@ -18159,7 +18159,7 @@
         <v>4</v>
       </c>
       <c r="I431" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:9">
@@ -18188,7 +18188,7 @@
         <v>4</v>
       </c>
       <c r="I432" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:9">
@@ -18217,7 +18217,7 @@
         <v>4</v>
       </c>
       <c r="I433" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:9">
@@ -18246,7 +18246,7 @@
         <v>4</v>
       </c>
       <c r="I434" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:9">
@@ -18275,7 +18275,7 @@
         <v>4</v>
       </c>
       <c r="I435" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:9">
@@ -18304,7 +18304,7 @@
         <v>4</v>
       </c>
       <c r="I436" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:9">
@@ -18333,7 +18333,7 @@
         <v>4</v>
       </c>
       <c r="I437" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:9">
@@ -18362,7 +18362,7 @@
         <v>4</v>
       </c>
       <c r="I438" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:9">
@@ -18391,7 +18391,7 @@
         <v>4</v>
       </c>
       <c r="I439" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440" spans="1:9">
@@ -18420,7 +18420,7 @@
         <v>4</v>
       </c>
       <c r="I440" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="441" spans="1:9">
@@ -18449,7 +18449,7 @@
         <v>4</v>
       </c>
       <c r="I441" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:9">
@@ -18478,7 +18478,7 @@
         <v>4</v>
       </c>
       <c r="I442" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:9">
@@ -18507,7 +18507,7 @@
         <v>4</v>
       </c>
       <c r="I443" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:9">
@@ -18536,7 +18536,7 @@
         <v>4</v>
       </c>
       <c r="I444" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:9">
@@ -18565,7 +18565,7 @@
         <v>4</v>
       </c>
       <c r="I445" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:9">
@@ -18594,7 +18594,7 @@
         <v>4</v>
       </c>
       <c r="I446" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:9">
@@ -18623,7 +18623,7 @@
         <v>4</v>
       </c>
       <c r="I447" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:9">
@@ -18652,7 +18652,7 @@
         <v>4</v>
       </c>
       <c r="I448" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:9">
@@ -18681,7 +18681,7 @@
         <v>4</v>
       </c>
       <c r="I449" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:9">
@@ -18710,7 +18710,7 @@
         <v>4</v>
       </c>
       <c r="I450" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:9">
@@ -18739,7 +18739,7 @@
         <v>4</v>
       </c>
       <c r="I451" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:9">
@@ -18768,7 +18768,7 @@
         <v>4</v>
       </c>
       <c r="I452" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:9">
@@ -18797,7 +18797,7 @@
         <v>4</v>
       </c>
       <c r="I453" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:9">
@@ -18826,7 +18826,7 @@
         <v>4</v>
       </c>
       <c r="I454" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:9">
@@ -18855,7 +18855,7 @@
         <v>4</v>
       </c>
       <c r="I455" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:9">
@@ -18884,7 +18884,7 @@
         <v>4</v>
       </c>
       <c r="I456" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:9">
@@ -18913,7 +18913,7 @@
         <v>4</v>
       </c>
       <c r="I457" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:9">
@@ -18942,7 +18942,7 @@
         <v>4</v>
       </c>
       <c r="I458" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:9">
@@ -18971,7 +18971,7 @@
         <v>4</v>
       </c>
       <c r="I459" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:9">
@@ -19000,7 +19000,7 @@
         <v>4</v>
       </c>
       <c r="I460" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461" spans="1:9">
@@ -19029,7 +19029,7 @@
         <v>4</v>
       </c>
       <c r="I461" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:9">
@@ -19058,7 +19058,7 @@
         <v>4</v>
       </c>
       <c r="I462" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:9">
@@ -19087,7 +19087,7 @@
         <v>4</v>
       </c>
       <c r="I463" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:9">
@@ -19116,7 +19116,7 @@
         <v>4</v>
       </c>
       <c r="I464" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="465" spans="1:9">
@@ -19145,7 +19145,7 @@
         <v>4</v>
       </c>
       <c r="I465" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:9">
@@ -19174,7 +19174,7 @@
         <v>4</v>
       </c>
       <c r="I466" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467" spans="1:9">
@@ -19203,7 +19203,7 @@
         <v>4</v>
       </c>
       <c r="I467" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:9">
@@ -19232,7 +19232,7 @@
         <v>4</v>
       </c>
       <c r="I468" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:9">
@@ -19261,7 +19261,7 @@
         <v>4</v>
       </c>
       <c r="I469" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:9">
@@ -19290,7 +19290,7 @@
         <v>4</v>
       </c>
       <c r="I470" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:9">
@@ -19319,7 +19319,7 @@
         <v>4</v>
       </c>
       <c r="I471" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:9">
@@ -19348,7 +19348,7 @@
         <v>4</v>
       </c>
       <c r="I472" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:9">
@@ -19377,7 +19377,7 @@
         <v>4</v>
       </c>
       <c r="I473" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:9">
@@ -19406,7 +19406,7 @@
         <v>4</v>
       </c>
       <c r="I474" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:9">
@@ -19435,7 +19435,7 @@
         <v>4</v>
       </c>
       <c r="I475" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476" spans="1:9">
@@ -19464,7 +19464,7 @@
         <v>4</v>
       </c>
       <c r="I476" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="477" spans="1:9">
@@ -19493,7 +19493,7 @@
         <v>4</v>
       </c>
       <c r="I477" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="478" spans="1:9">
@@ -19522,7 +19522,7 @@
         <v>4</v>
       </c>
       <c r="I478" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="479" spans="1:9">
@@ -19551,7 +19551,7 @@
         <v>4</v>
       </c>
       <c r="I479" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="480" spans="1:9">
@@ -19580,7 +19580,7 @@
         <v>4</v>
       </c>
       <c r="I480" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="481" spans="1:9">
@@ -19609,7 +19609,7 @@
         <v>4</v>
       </c>
       <c r="I481" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="482" spans="1:9">
@@ -19638,7 +19638,7 @@
         <v>4</v>
       </c>
       <c r="I482" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:9">
@@ -19667,7 +19667,7 @@
         <v>4</v>
       </c>
       <c r="I483" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="484" spans="1:9">
@@ -19696,7 +19696,7 @@
         <v>4</v>
       </c>
       <c r="I484" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="485" spans="1:9">
@@ -19725,7 +19725,7 @@
         <v>4</v>
       </c>
       <c r="I485" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="486" spans="1:9">
@@ -19754,7 +19754,7 @@
         <v>4</v>
       </c>
       <c r="I486" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="487" spans="1:9">
@@ -19783,7 +19783,7 @@
         <v>4</v>
       </c>
       <c r="I487" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="488" spans="1:9">
@@ -19812,7 +19812,7 @@
         <v>4</v>
       </c>
       <c r="I488" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="489" spans="1:9">
@@ -19841,7 +19841,7 @@
         <v>4</v>
       </c>
       <c r="I489" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="490" spans="1:9">
@@ -19870,7 +19870,7 @@
         <v>4</v>
       </c>
       <c r="I490" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="491" spans="1:9">
@@ -19899,7 +19899,7 @@
         <v>4</v>
       </c>
       <c r="I491" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:9">
@@ -19928,7 +19928,7 @@
         <v>4</v>
       </c>
       <c r="I492" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:9">
@@ -19957,7 +19957,7 @@
         <v>4</v>
       </c>
       <c r="I493" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="494" spans="1:9">
@@ -19986,7 +19986,7 @@
         <v>4</v>
       </c>
       <c r="I494" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="495" spans="1:9">
@@ -20015,7 +20015,7 @@
         <v>4</v>
       </c>
       <c r="I495" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496" spans="1:9">
@@ -20044,7 +20044,7 @@
         <v>4</v>
       </c>
       <c r="I496" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="497" spans="1:9">
@@ -20073,7 +20073,7 @@
         <v>4</v>
       </c>
       <c r="I497" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:9">
@@ -20102,7 +20102,7 @@
         <v>4</v>
       </c>
       <c r="I498" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499" spans="1:9">
@@ -20131,7 +20131,7 @@
         <v>4</v>
       </c>
       <c r="I499" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500" spans="1:9">
@@ -20160,7 +20160,7 @@
         <v>4</v>
       </c>
       <c r="I500" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:9">
@@ -20189,7 +20189,7 @@
         <v>4</v>
       </c>
       <c r="I501" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="502" spans="1:9">
@@ -20218,7 +20218,7 @@
         <v>4</v>
       </c>
       <c r="I502" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="503" spans="1:9">
@@ -20247,7 +20247,7 @@
         <v>4</v>
       </c>
       <c r="I503" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504" spans="1:9">
@@ -20276,7 +20276,7 @@
         <v>4</v>
       </c>
       <c r="I504" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="505" spans="1:9">
@@ -20305,7 +20305,7 @@
         <v>4</v>
       </c>
       <c r="I505" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="506" spans="1:9">
@@ -20334,7 +20334,7 @@
         <v>4</v>
       </c>
       <c r="I506" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="507" spans="1:9">
@@ -20363,7 +20363,7 @@
         <v>4</v>
       </c>
       <c r="I507" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:9">
@@ -20392,7 +20392,7 @@
         <v>4</v>
       </c>
       <c r="I508" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509" spans="1:9">
@@ -20421,7 +20421,7 @@
         <v>4</v>
       </c>
       <c r="I509" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:9">
@@ -20450,7 +20450,7 @@
         <v>4</v>
       </c>
       <c r="I510" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="511" spans="1:9">
@@ -20479,7 +20479,7 @@
         <v>4</v>
       </c>
       <c r="I511" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512" spans="1:9">
@@ -20508,7 +20508,7 @@
         <v>4</v>
       </c>
       <c r="I512" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="513" spans="1:9">
@@ -20537,7 +20537,7 @@
         <v>4</v>
       </c>
       <c r="I513" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="514" spans="1:9">
@@ -20566,7 +20566,7 @@
         <v>4</v>
       </c>
       <c r="I514" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="515" spans="1:9">
@@ -20595,7 +20595,7 @@
         <v>4</v>
       </c>
       <c r="I515" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516" spans="1:9">
@@ -20624,7 +20624,7 @@
         <v>4</v>
       </c>
       <c r="I516" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517" spans="1:9">
@@ -20653,7 +20653,7 @@
         <v>4</v>
       </c>
       <c r="I517" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="518" spans="1:9">
@@ -20682,7 +20682,7 @@
         <v>4</v>
       </c>
       <c r="I518" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="519" spans="1:9">
@@ -20711,7 +20711,7 @@
         <v>4</v>
       </c>
       <c r="I519" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="520" spans="1:9">
@@ -20740,7 +20740,7 @@
         <v>4</v>
       </c>
       <c r="I520" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="521" spans="1:9">
@@ -20769,7 +20769,7 @@
         <v>4</v>
       </c>
       <c r="I521" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:9">
@@ -20798,7 +20798,7 @@
         <v>4</v>
       </c>
       <c r="I522" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:9">
@@ -20827,7 +20827,7 @@
         <v>4</v>
       </c>
       <c r="I523" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:9">
@@ -20856,7 +20856,7 @@
         <v>4</v>
       </c>
       <c r="I524" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:9">
@@ -20885,7 +20885,7 @@
         <v>4</v>
       </c>
       <c r="I525" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526" spans="1:9">
@@ -20914,7 +20914,7 @@
         <v>4</v>
       </c>
       <c r="I526" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="527" spans="1:9">
@@ -20943,7 +20943,7 @@
         <v>4</v>
       </c>
       <c r="I527" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:9">
@@ -20972,7 +20972,7 @@
         <v>4</v>
       </c>
       <c r="I528" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="529" spans="1:9">
@@ -21001,7 +21001,7 @@
         <v>4</v>
       </c>
       <c r="I529" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530" spans="1:9">
@@ -21030,7 +21030,7 @@
         <v>4</v>
       </c>
       <c r="I530" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531" spans="1:9">
@@ -21059,7 +21059,7 @@
         <v>4</v>
       </c>
       <c r="I531" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532" spans="1:9">
@@ -21088,7 +21088,7 @@
         <v>4</v>
       </c>
       <c r="I532" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:9">
@@ -21117,7 +21117,7 @@
         <v>4</v>
       </c>
       <c r="I533" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:9">
@@ -21146,7 +21146,7 @@
         <v>4</v>
       </c>
       <c r="I534" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="535" spans="1:9">
@@ -21175,7 +21175,7 @@
         <v>4</v>
       </c>
       <c r="I535" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="536" spans="1:9">
@@ -21204,7 +21204,7 @@
         <v>4</v>
       </c>
       <c r="I536" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537" spans="1:9">
@@ -21233,7 +21233,7 @@
         <v>4</v>
       </c>
       <c r="I537" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="538" spans="1:9">
@@ -21262,7 +21262,7 @@
         <v>4</v>
       </c>
       <c r="I538" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="539" spans="1:9">
@@ -21291,7 +21291,7 @@
         <v>4</v>
       </c>
       <c r="I539" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="540" spans="1:9">
@@ -21320,7 +21320,7 @@
         <v>4</v>
       </c>
       <c r="I540" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:9">
@@ -21349,7 +21349,7 @@
         <v>4</v>
       </c>
       <c r="I541" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:9">
@@ -21378,7 +21378,7 @@
         <v>4</v>
       </c>
       <c r="I542" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="543" spans="1:9">
@@ -21407,7 +21407,7 @@
         <v>4</v>
       </c>
       <c r="I543" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="544" spans="1:9">
@@ -21436,7 +21436,7 @@
         <v>4</v>
       </c>
       <c r="I544" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="545" spans="1:9">
@@ -21465,7 +21465,7 @@
         <v>4</v>
       </c>
       <c r="I545" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="546" spans="1:9">
@@ -21494,7 +21494,7 @@
         <v>4</v>
       </c>
       <c r="I546" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547" spans="1:9">
@@ -21523,7 +21523,7 @@
         <v>4</v>
       </c>
       <c r="I547" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548" spans="1:9">
@@ -21552,7 +21552,7 @@
         <v>4</v>
       </c>
       <c r="I548" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="549" spans="1:9">
@@ -21581,7 +21581,7 @@
         <v>4</v>
       </c>
       <c r="I549" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="550" spans="1:9">
@@ -21610,7 +21610,7 @@
         <v>4</v>
       </c>
       <c r="I550" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="551" spans="1:9">
@@ -21639,7 +21639,7 @@
         <v>4</v>
       </c>
       <c r="I551" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="552" spans="1:9">
@@ -21668,7 +21668,7 @@
         <v>4</v>
       </c>
       <c r="I552" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="553" spans="1:9">
@@ -21697,7 +21697,7 @@
         <v>4</v>
       </c>
       <c r="I553" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="554" spans="1:9">
@@ -21726,7 +21726,7 @@
         <v>4</v>
       </c>
       <c r="I554" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="555" spans="1:9">
@@ -21755,7 +21755,7 @@
         <v>4</v>
       </c>
       <c r="I555" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="556" spans="1:9">
@@ -21784,7 +21784,7 @@
         <v>4</v>
       </c>
       <c r="I556" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="557" spans="1:9">
@@ -21813,7 +21813,7 @@
         <v>4</v>
       </c>
       <c r="I557" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="558" spans="1:9">
@@ -21842,7 +21842,7 @@
         <v>4</v>
       </c>
       <c r="I558" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="559" spans="1:9">
@@ -21871,7 +21871,7 @@
         <v>4</v>
       </c>
       <c r="I559" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="560" spans="1:9">
@@ -21900,7 +21900,7 @@
         <v>4</v>
       </c>
       <c r="I560" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="561" spans="1:9">
@@ -21929,7 +21929,7 @@
         <v>4</v>
       </c>
       <c r="I561" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="562" spans="1:9">
@@ -21958,7 +21958,7 @@
         <v>4</v>
       </c>
       <c r="I562" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="563" spans="1:9">
@@ -21987,7 +21987,7 @@
         <v>4</v>
       </c>
       <c r="I563" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="564" spans="1:9">
@@ -22016,7 +22016,7 @@
         <v>4</v>
       </c>
       <c r="I564" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="565" spans="1:9">
@@ -22045,7 +22045,7 @@
         <v>4</v>
       </c>
       <c r="I565" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="566" spans="1:9">
@@ -22074,7 +22074,7 @@
         <v>4</v>
       </c>
       <c r="I566" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="567" spans="1:9">
@@ -22103,7 +22103,7 @@
         <v>4</v>
       </c>
       <c r="I567" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="568" spans="1:9">
@@ -22132,7 +22132,7 @@
         <v>4</v>
       </c>
       <c r="I568" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="569" spans="1:9">
@@ -22161,7 +22161,7 @@
         <v>4</v>
       </c>
       <c r="I569" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="570" spans="1:9">
@@ -22190,7 +22190,7 @@
         <v>4</v>
       </c>
       <c r="I570" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="571" spans="1:9">
@@ -22219,7 +22219,7 @@
         <v>4</v>
       </c>
       <c r="I571" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="572" spans="1:9">
@@ -22248,7 +22248,7 @@
         <v>4</v>
       </c>
       <c r="I572" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="573" spans="1:9">
@@ -22277,7 +22277,7 @@
         <v>4</v>
       </c>
       <c r="I573" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="574" spans="1:9">
@@ -22306,7 +22306,7 @@
         <v>4</v>
       </c>
       <c r="I574" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="575" spans="1:9">
@@ -22335,7 +22335,7 @@
         <v>4</v>
       </c>
       <c r="I575" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="576" spans="1:9">
@@ -22364,7 +22364,7 @@
         <v>4</v>
       </c>
       <c r="I576" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="577" spans="1:9">
@@ -22393,7 +22393,7 @@
         <v>4</v>
       </c>
       <c r="I577" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="578" spans="1:9">
@@ -22422,7 +22422,7 @@
         <v>4</v>
       </c>
       <c r="I578" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="579" spans="1:9">
@@ -22451,7 +22451,7 @@
         <v>4</v>
       </c>
       <c r="I579" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="580" spans="1:9">
@@ -22480,7 +22480,7 @@
         <v>4</v>
       </c>
       <c r="I580" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="581" spans="1:9">
@@ -22509,7 +22509,7 @@
         <v>4</v>
       </c>
       <c r="I581" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="582" spans="1:9">
@@ -22538,7 +22538,7 @@
         <v>4</v>
       </c>
       <c r="I582" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="583" spans="1:9">
@@ -22567,7 +22567,7 @@
         <v>4</v>
       </c>
       <c r="I583" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="584" spans="1:9">
@@ -22596,7 +22596,7 @@
         <v>4</v>
       </c>
       <c r="I584" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="585" spans="1:9">
@@ -22625,7 +22625,7 @@
         <v>4</v>
       </c>
       <c r="I585" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="586" spans="1:9">
@@ -22654,7 +22654,7 @@
         <v>4</v>
       </c>
       <c r="I586" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="587" spans="1:9">
@@ -22683,7 +22683,7 @@
         <v>4</v>
       </c>
       <c r="I587" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="588" spans="1:9">
@@ -22712,7 +22712,7 @@
         <v>4</v>
       </c>
       <c r="I588" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="589" spans="1:9">
@@ -22741,7 +22741,7 @@
         <v>4</v>
       </c>
       <c r="I589" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="590" spans="1:9">
@@ -22770,7 +22770,7 @@
         <v>4</v>
       </c>
       <c r="I590" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="591" spans="1:9">
@@ -22799,7 +22799,7 @@
         <v>4</v>
       </c>
       <c r="I591" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="592" spans="1:9">
@@ -22828,7 +22828,7 @@
         <v>4</v>
       </c>
       <c r="I592" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="593" spans="1:9">
@@ -22857,7 +22857,7 @@
         <v>4</v>
       </c>
       <c r="I593" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="594" spans="1:9">
@@ -22886,7 +22886,7 @@
         <v>4</v>
       </c>
       <c r="I594" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="595" spans="1:9">
@@ -22909,13 +22909,13 @@
         <v>1140</v>
       </c>
       <c r="G595" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H595" t="s">
         <v>4</v>
       </c>
       <c r="I595" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="596" spans="1:9">
@@ -22944,7 +22944,7 @@
         <v>4</v>
       </c>
       <c r="I596" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="597" spans="1:9">
@@ -22973,7 +22973,7 @@
         <v>4</v>
       </c>
       <c r="I597" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="598" spans="1:9">
@@ -23002,7 +23002,7 @@
         <v>4</v>
       </c>
       <c r="I598" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="599" spans="1:9">
@@ -23031,7 +23031,7 @@
         <v>4</v>
       </c>
       <c r="I599" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="600" spans="1:9">
@@ -23060,7 +23060,7 @@
         <v>4</v>
       </c>
       <c r="I600" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="601" spans="1:9">
@@ -23089,7 +23089,7 @@
         <v>4</v>
       </c>
       <c r="I601" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="602" spans="1:9">
@@ -23118,7 +23118,7 @@
         <v>4</v>
       </c>
       <c r="I602" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="603" spans="1:9">
@@ -23147,7 +23147,7 @@
         <v>4</v>
       </c>
       <c r="I603" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="604" spans="1:9">
@@ -23176,7 +23176,7 @@
         <v>4</v>
       </c>
       <c r="I604" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="605" spans="1:9">
@@ -23205,7 +23205,7 @@
         <v>4</v>
       </c>
       <c r="I605" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="606" spans="1:9">
@@ -23234,7 +23234,7 @@
         <v>4</v>
       </c>
       <c r="I606" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="607" spans="1:9">
@@ -23263,7 +23263,7 @@
         <v>4</v>
       </c>
       <c r="I607" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="608" spans="1:9">
@@ -23292,7 +23292,7 @@
         <v>4</v>
       </c>
       <c r="I608" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="609" spans="1:9">
@@ -23321,7 +23321,7 @@
         <v>4</v>
       </c>
       <c r="I609" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="610" spans="1:9">
@@ -23350,7 +23350,7 @@
         <v>4</v>
       </c>
       <c r="I610" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="611" spans="1:9">
@@ -23379,7 +23379,7 @@
         <v>4</v>
       </c>
       <c r="I611" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="612" spans="1:9">
@@ -23408,7 +23408,7 @@
         <v>4</v>
       </c>
       <c r="I612" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="613" spans="1:9">
@@ -23437,7 +23437,7 @@
         <v>4</v>
       </c>
       <c r="I613" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="614" spans="1:9">
@@ -23466,7 +23466,7 @@
         <v>4</v>
       </c>
       <c r="I614" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="615" spans="1:9">
@@ -23495,7 +23495,7 @@
         <v>4</v>
       </c>
       <c r="I615" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="616" spans="1:9">
@@ -23524,7 +23524,7 @@
         <v>4</v>
       </c>
       <c r="I616" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="617" spans="1:9">
@@ -23553,7 +23553,7 @@
         <v>4</v>
       </c>
       <c r="I617" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="618" spans="1:9">
@@ -23582,7 +23582,7 @@
         <v>4</v>
       </c>
       <c r="I618" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="619" spans="1:9">
@@ -23611,7 +23611,7 @@
         <v>4</v>
       </c>
       <c r="I619" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="620" spans="1:9">
@@ -23640,7 +23640,7 @@
         <v>4</v>
       </c>
       <c r="I620" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="621" spans="1:9">
@@ -23669,7 +23669,7 @@
         <v>4</v>
       </c>
       <c r="I621" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="622" spans="1:9">
@@ -23698,7 +23698,7 @@
         <v>4</v>
       </c>
       <c r="I622" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="623" spans="1:9">
@@ -23727,7 +23727,7 @@
         <v>4</v>
       </c>
       <c r="I623" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="624" spans="1:9">
@@ -23756,7 +23756,7 @@
         <v>4</v>
       </c>
       <c r="I624" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="625" spans="1:9">
@@ -23785,7 +23785,7 @@
         <v>4</v>
       </c>
       <c r="I625" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="626" spans="1:9">
@@ -23814,7 +23814,7 @@
         <v>4</v>
       </c>
       <c r="I626" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="627" spans="1:9">
@@ -23843,7 +23843,7 @@
         <v>4</v>
       </c>
       <c r="I627" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="628" spans="1:9">
@@ -23872,7 +23872,7 @@
         <v>4</v>
       </c>
       <c r="I628" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="629" spans="1:9">
@@ -23901,7 +23901,7 @@
         <v>4</v>
       </c>
       <c r="I629" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="630" spans="1:9">
@@ -23930,7 +23930,7 @@
         <v>4</v>
       </c>
       <c r="I630" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="631" spans="1:9">
@@ -23959,7 +23959,7 @@
         <v>4</v>
       </c>
       <c r="I631" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="632" spans="1:9">
@@ -23988,7 +23988,7 @@
         <v>4</v>
       </c>
       <c r="I632" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="633" spans="1:9">
@@ -24017,7 +24017,7 @@
         <v>4</v>
       </c>
       <c r="I633" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="634" spans="1:9">
@@ -24046,7 +24046,7 @@
         <v>4</v>
       </c>
       <c r="I634" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="635" spans="1:9">
@@ -24075,7 +24075,7 @@
         <v>4</v>
       </c>
       <c r="I635" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="636" spans="1:9">
@@ -24104,7 +24104,7 @@
         <v>4</v>
       </c>
       <c r="I636" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="637" spans="1:9">
@@ -24133,7 +24133,7 @@
         <v>4</v>
       </c>
       <c r="I637" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="638" spans="1:9">
@@ -24162,7 +24162,7 @@
         <v>4</v>
       </c>
       <c r="I638" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="639" spans="1:9">
@@ -24191,7 +24191,7 @@
         <v>4</v>
       </c>
       <c r="I639" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="640" spans="1:9">
@@ -24220,7 +24220,7 @@
         <v>4</v>
       </c>
       <c r="I640" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="641" spans="1:9">
@@ -24249,7 +24249,7 @@
         <v>4</v>
       </c>
       <c r="I641" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="642" spans="1:9">
@@ -24278,7 +24278,7 @@
         <v>4</v>
       </c>
       <c r="I642" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="643" spans="1:9">
@@ -24307,7 +24307,7 @@
         <v>4</v>
       </c>
       <c r="I643" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="644" spans="1:9">
@@ -24336,7 +24336,7 @@
         <v>4</v>
       </c>
       <c r="I644" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="645" spans="1:9">
@@ -24365,7 +24365,7 @@
         <v>4</v>
       </c>
       <c r="I645" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="646" spans="1:9">
@@ -24394,7 +24394,7 @@
         <v>4</v>
       </c>
       <c r="I646" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="647" spans="1:9">
@@ -24423,7 +24423,7 @@
         <v>4</v>
       </c>
       <c r="I647" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="648" spans="1:9">
@@ -24452,7 +24452,7 @@
         <v>4</v>
       </c>
       <c r="I648" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="649" spans="1:9">
@@ -24481,7 +24481,7 @@
         <v>4</v>
       </c>
       <c r="I649" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="650" spans="1:9">
@@ -24510,7 +24510,7 @@
         <v>4</v>
       </c>
       <c r="I650" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="651" spans="1:9">
@@ -24539,7 +24539,7 @@
         <v>4</v>
       </c>
       <c r="I651" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="652" spans="1:9">
@@ -24568,7 +24568,7 @@
         <v>4</v>
       </c>
       <c r="I652" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="653" spans="1:9">
@@ -24597,7 +24597,7 @@
         <v>4</v>
       </c>
       <c r="I653" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="654" spans="1:9">
@@ -24626,7 +24626,7 @@
         <v>4</v>
       </c>
       <c r="I654" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="655" spans="1:9">
@@ -24655,7 +24655,7 @@
         <v>4</v>
       </c>
       <c r="I655" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="656" spans="1:9">
@@ -24684,7 +24684,7 @@
         <v>4</v>
       </c>
       <c r="I656" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="657" spans="1:9">
@@ -24713,7 +24713,7 @@
         <v>4</v>
       </c>
       <c r="I657" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="658" spans="1:9">
@@ -24742,7 +24742,7 @@
         <v>4</v>
       </c>
       <c r="I658" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="659" spans="1:9">
@@ -24771,7 +24771,7 @@
         <v>4</v>
       </c>
       <c r="I659" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="660" spans="1:9">
@@ -24800,7 +24800,7 @@
         <v>4</v>
       </c>
       <c r="I660" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="661" spans="1:9">
@@ -24829,7 +24829,7 @@
         <v>4</v>
       </c>
       <c r="I661" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="662" spans="1:9">
@@ -24858,7 +24858,7 @@
         <v>4</v>
       </c>
       <c r="I662" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="663" spans="1:9">
@@ -24887,7 +24887,7 @@
         <v>4</v>
       </c>
       <c r="I663" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="664" spans="1:9">
@@ -24916,7 +24916,7 @@
         <v>4</v>
       </c>
       <c r="I664" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="665" spans="1:9">
@@ -24945,7 +24945,7 @@
         <v>4</v>
       </c>
       <c r="I665" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="666" spans="1:9">
@@ -24974,7 +24974,7 @@
         <v>4</v>
       </c>
       <c r="I666" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="667" spans="1:9">
@@ -25003,7 +25003,7 @@
         <v>4</v>
       </c>
       <c r="I667" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="668" spans="1:9">
@@ -25032,7 +25032,7 @@
         <v>4</v>
       </c>
       <c r="I668" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="669" spans="1:9">
@@ -25061,7 +25061,7 @@
         <v>4</v>
       </c>
       <c r="I669" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="670" spans="1:9">
@@ -25090,7 +25090,7 @@
         <v>4</v>
       </c>
       <c r="I670" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="671" spans="1:9">
@@ -25119,7 +25119,7 @@
         <v>4</v>
       </c>
       <c r="I671" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="672" spans="1:9">
@@ -25148,7 +25148,7 @@
         <v>4</v>
       </c>
       <c r="I672" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="673" spans="1:9">
@@ -25177,7 +25177,7 @@
         <v>4</v>
       </c>
       <c r="I673" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="674" spans="1:9">
@@ -25206,7 +25206,7 @@
         <v>4</v>
       </c>
       <c r="I674" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="675" spans="1:9">
@@ -25235,7 +25235,7 @@
         <v>4</v>
       </c>
       <c r="I675" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="676" spans="1:9">
@@ -25264,7 +25264,7 @@
         <v>4</v>
       </c>
       <c r="I676" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="677" spans="1:9">
@@ -25293,7 +25293,7 @@
         <v>4</v>
       </c>
       <c r="I677" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="678" spans="1:9">
@@ -25322,7 +25322,7 @@
         <v>4</v>
       </c>
       <c r="I678" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="679" spans="1:9">
@@ -25351,7 +25351,7 @@
         <v>4</v>
       </c>
       <c r="I679" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="680" spans="1:9">
@@ -25380,7 +25380,7 @@
         <v>4</v>
       </c>
       <c r="I680" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="681" spans="1:9">
@@ -25409,7 +25409,7 @@
         <v>4</v>
       </c>
       <c r="I681" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="682" spans="1:9">
@@ -25438,7 +25438,7 @@
         <v>4</v>
       </c>
       <c r="I682" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="683" spans="1:9">
@@ -25467,7 +25467,7 @@
         <v>4</v>
       </c>
       <c r="I683" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="684" spans="1:9">
@@ -25496,7 +25496,7 @@
         <v>4</v>
       </c>
       <c r="I684" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="685" spans="1:9">
@@ -25525,7 +25525,7 @@
         <v>4</v>
       </c>
       <c r="I685" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="686" spans="1:9">
@@ -25554,7 +25554,7 @@
         <v>4</v>
       </c>
       <c r="I686" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="687" spans="1:9">
@@ -25583,7 +25583,7 @@
         <v>4</v>
       </c>
       <c r="I687" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="688" spans="1:9">
@@ -25612,7 +25612,7 @@
         <v>4</v>
       </c>
       <c r="I688" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="689" spans="1:9">
@@ -25641,7 +25641,7 @@
         <v>4</v>
       </c>
       <c r="I689" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="690" spans="1:9">
@@ -25670,7 +25670,7 @@
         <v>4</v>
       </c>
       <c r="I690" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="691" spans="1:9">
@@ -25699,7 +25699,7 @@
         <v>4</v>
       </c>
       <c r="I691" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="692" spans="1:9">
@@ -25728,7 +25728,7 @@
         <v>4</v>
       </c>
       <c r="I692" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="693" spans="1:9">
@@ -25757,7 +25757,7 @@
         <v>4</v>
       </c>
       <c r="I693" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="694" spans="1:9">
@@ -25786,7 +25786,7 @@
         <v>4</v>
       </c>
       <c r="I694" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="695" spans="1:9">
@@ -25815,7 +25815,7 @@
         <v>4</v>
       </c>
       <c r="I695" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="696" spans="1:9">
@@ -25844,7 +25844,7 @@
         <v>4</v>
       </c>
       <c r="I696" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="697" spans="1:9">
@@ -25873,7 +25873,7 @@
         <v>4</v>
       </c>
       <c r="I697" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="698" spans="1:9">
@@ -25902,7 +25902,7 @@
         <v>4</v>
       </c>
       <c r="I698" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="699" spans="1:9">
@@ -25931,7 +25931,7 @@
         <v>4</v>
       </c>
       <c r="I699" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="700" spans="1:9">
@@ -25960,7 +25960,7 @@
         <v>4</v>
       </c>
       <c r="I700" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="701" spans="1:9">
@@ -25989,7 +25989,7 @@
         <v>4</v>
       </c>
       <c r="I701" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="702" spans="1:9">
@@ -26018,7 +26018,7 @@
         <v>4</v>
       </c>
       <c r="I702" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="703" spans="1:9">
@@ -26047,7 +26047,7 @@
         <v>4</v>
       </c>
       <c r="I703" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="704" spans="1:9">
@@ -26076,7 +26076,7 @@
         <v>4</v>
       </c>
       <c r="I704" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="705" spans="1:9">
@@ -26105,7 +26105,7 @@
         <v>4</v>
       </c>
       <c r="I705" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="706" spans="1:9">
@@ -26134,7 +26134,7 @@
         <v>4</v>
       </c>
       <c r="I706" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="707" spans="1:9">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="I707" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="708" spans="1:9">
@@ -26192,7 +26192,7 @@
         <v>4</v>
       </c>
       <c r="I708" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="709" spans="1:9">
@@ -26221,7 +26221,7 @@
         <v>4</v>
       </c>
       <c r="I709" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="710" spans="1:9">
@@ -26250,7 +26250,7 @@
         <v>4</v>
       </c>
       <c r="I710" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="711" spans="1:9">
@@ -26279,7 +26279,7 @@
         <v>4</v>
       </c>
       <c r="I711" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="712" spans="1:9">
@@ -26308,7 +26308,7 @@
         <v>4</v>
       </c>
       <c r="I712" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="713" spans="1:9">
@@ -26337,7 +26337,7 @@
         <v>4</v>
       </c>
       <c r="I713" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="714" spans="1:9">
@@ -26366,7 +26366,7 @@
         <v>4</v>
       </c>
       <c r="I714" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="715" spans="1:9">
@@ -26395,7 +26395,7 @@
         <v>4</v>
       </c>
       <c r="I715" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="716" spans="1:9">
@@ -26424,7 +26424,7 @@
         <v>4</v>
       </c>
       <c r="I716" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="717" spans="1:9">
@@ -26453,7 +26453,7 @@
         <v>4</v>
       </c>
       <c r="I717" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="718" spans="1:9">
@@ -26482,7 +26482,7 @@
         <v>4</v>
       </c>
       <c r="I718" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="719" spans="1:9">
@@ -26511,7 +26511,7 @@
         <v>4</v>
       </c>
       <c r="I719" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="720" spans="1:9">
@@ -26540,7 +26540,7 @@
         <v>4</v>
       </c>
       <c r="I720" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="721" spans="1:9">
@@ -26569,7 +26569,7 @@
         <v>4</v>
       </c>
       <c r="I721" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="722" spans="1:9">
@@ -26598,7 +26598,7 @@
         <v>4</v>
       </c>
       <c r="I722" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="723" spans="1:9">
@@ -26627,7 +26627,7 @@
         <v>4</v>
       </c>
       <c r="I723" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="724" spans="1:9">
@@ -26656,7 +26656,7 @@
         <v>4</v>
       </c>
       <c r="I724" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="725" spans="1:9">
@@ -26685,7 +26685,7 @@
         <v>4</v>
       </c>
       <c r="I725" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="726" spans="1:9">
@@ -26714,7 +26714,7 @@
         <v>4</v>
       </c>
       <c r="I726" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="727" spans="1:9">
@@ -26743,7 +26743,7 @@
         <v>4</v>
       </c>
       <c r="I727" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="728" spans="1:9">
@@ -26772,7 +26772,7 @@
         <v>4</v>
       </c>
       <c r="I728" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="729" spans="1:9">
@@ -26801,7 +26801,7 @@
         <v>4</v>
       </c>
       <c r="I729" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="730" spans="1:9">
@@ -26830,7 +26830,7 @@
         <v>4</v>
       </c>
       <c r="I730" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="731" spans="1:9">
@@ -26859,7 +26859,7 @@
         <v>4</v>
       </c>
       <c r="I731" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="732" spans="1:9">
@@ -26888,7 +26888,7 @@
         <v>4</v>
       </c>
       <c r="I732" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="733" spans="1:9">
@@ -26917,7 +26917,7 @@
         <v>4</v>
       </c>
       <c r="I733" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="734" spans="1:9">
@@ -26946,7 +26946,7 @@
         <v>4</v>
       </c>
       <c r="I734" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="735" spans="1:9">
@@ -26975,7 +26975,7 @@
         <v>4</v>
       </c>
       <c r="I735" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="736" spans="1:9">
@@ -27004,7 +27004,7 @@
         <v>4</v>
       </c>
       <c r="I736" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="737" spans="1:9">
@@ -27033,7 +27033,7 @@
         <v>4</v>
       </c>
       <c r="I737" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="738" spans="1:9">
@@ -27062,7 +27062,7 @@
         <v>4</v>
       </c>
       <c r="I738" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="739" spans="1:9">
@@ -27091,7 +27091,7 @@
         <v>4</v>
       </c>
       <c r="I739" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="740" spans="1:9">
@@ -27120,7 +27120,7 @@
         <v>4</v>
       </c>
       <c r="I740" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="741" spans="1:9">
@@ -27149,7 +27149,7 @@
         <v>4</v>
       </c>
       <c r="I741" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="742" spans="1:9">
@@ -27178,7 +27178,7 @@
         <v>4</v>
       </c>
       <c r="I742" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="743" spans="1:9">
@@ -27207,7 +27207,7 @@
         <v>4</v>
       </c>
       <c r="I743" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="744" spans="1:9">
@@ -27236,7 +27236,7 @@
         <v>4</v>
       </c>
       <c r="I744" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="745" spans="1:9">
@@ -27265,7 +27265,7 @@
         <v>4</v>
       </c>
       <c r="I745" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="746" spans="1:9">
@@ -27294,7 +27294,7 @@
         <v>4</v>
       </c>
       <c r="I746" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="747" spans="1:9">
@@ -27323,7 +27323,7 @@
         <v>4</v>
       </c>
       <c r="I747" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="748" spans="1:9">
@@ -27352,7 +27352,7 @@
         <v>4</v>
       </c>
       <c r="I748" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="749" spans="1:9">
@@ -27381,7 +27381,7 @@
         <v>4</v>
       </c>
       <c r="I749" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="750" spans="1:9">
@@ -27410,7 +27410,7 @@
         <v>4</v>
       </c>
       <c r="I750" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="751" spans="1:9">
@@ -27439,7 +27439,7 @@
         <v>4</v>
       </c>
       <c r="I751" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="752" spans="1:9">
@@ -27468,7 +27468,7 @@
         <v>4</v>
       </c>
       <c r="I752" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="753" spans="1:9">
@@ -27497,7 +27497,7 @@
         <v>4</v>
       </c>
       <c r="I753" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="754" spans="1:9">
@@ -27526,7 +27526,7 @@
         <v>4</v>
       </c>
       <c r="I754" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="755" spans="1:9">
@@ -27555,7 +27555,7 @@
         <v>4</v>
       </c>
       <c r="I755" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="756" spans="1:9">
@@ -27584,7 +27584,7 @@
         <v>4</v>
       </c>
       <c r="I756" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="757" spans="1:9">
@@ -27613,7 +27613,7 @@
         <v>4</v>
       </c>
       <c r="I757" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="758" spans="1:9">
@@ -27642,7 +27642,7 @@
         <v>4</v>
       </c>
       <c r="I758" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="759" spans="1:9">
@@ -27671,7 +27671,7 @@
         <v>4</v>
       </c>
       <c r="I759" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="760" spans="1:9">
@@ -27700,7 +27700,7 @@
         <v>4</v>
       </c>
       <c r="I760" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="761" spans="1:9">
@@ -27729,7 +27729,7 @@
         <v>4</v>
       </c>
       <c r="I761" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="762" spans="1:9">
@@ -27758,7 +27758,7 @@
         <v>4</v>
       </c>
       <c r="I762" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="763" spans="1:9">
@@ -27787,7 +27787,7 @@
         <v>4</v>
       </c>
       <c r="I763" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="764" spans="1:9">
@@ -27816,7 +27816,7 @@
         <v>4</v>
       </c>
       <c r="I764" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="765" spans="1:9">
@@ -27845,7 +27845,7 @@
         <v>4</v>
       </c>
       <c r="I765" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="766" spans="1:9">
@@ -27874,7 +27874,7 @@
         <v>4</v>
       </c>
       <c r="I766" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="767" spans="1:9">
@@ -27903,7 +27903,7 @@
         <v>4</v>
       </c>
       <c r="I767" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="768" spans="1:9">
@@ -27932,7 +27932,7 @@
         <v>4</v>
       </c>
       <c r="I768" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="769" spans="1:9">
@@ -27961,7 +27961,7 @@
         <v>4</v>
       </c>
       <c r="I769" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="770" spans="1:9">
@@ -27990,7 +27990,7 @@
         <v>4</v>
       </c>
       <c r="I770" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="771" spans="1:9">
@@ -28019,7 +28019,7 @@
         <v>4</v>
       </c>
       <c r="I771" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="772" spans="1:9">
@@ -28048,7 +28048,7 @@
         <v>4</v>
       </c>
       <c r="I772" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="773" spans="1:9">
@@ -28077,7 +28077,7 @@
         <v>4</v>
       </c>
       <c r="I773" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="774" spans="1:9">
@@ -28106,7 +28106,7 @@
         <v>4</v>
       </c>
       <c r="I774" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="775" spans="1:9">
@@ -28135,7 +28135,7 @@
         <v>4</v>
       </c>
       <c r="I775" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="776" spans="1:9">
@@ -28164,7 +28164,7 @@
         <v>4</v>
       </c>
       <c r="I776" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="777" spans="1:9">
@@ -28193,7 +28193,7 @@
         <v>4</v>
       </c>
       <c r="I777" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="778" spans="1:9">
@@ -28222,7 +28222,7 @@
         <v>4</v>
       </c>
       <c r="I778" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="779" spans="1:9">
@@ -28251,7 +28251,7 @@
         <v>4</v>
       </c>
       <c r="I779" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="780" spans="1:9">
@@ -28280,7 +28280,7 @@
         <v>4</v>
       </c>
       <c r="I780" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="781" spans="1:9">
@@ -28309,7 +28309,7 @@
         <v>4</v>
       </c>
       <c r="I781" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="782" spans="1:9">
@@ -28338,7 +28338,7 @@
         <v>4</v>
       </c>
       <c r="I782" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="783" spans="1:9">
@@ -28367,7 +28367,7 @@
         <v>4</v>
       </c>
       <c r="I783" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="784" spans="1:9">
@@ -28396,7 +28396,7 @@
         <v>4</v>
       </c>
       <c r="I784" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="785" spans="1:9">
@@ -28425,7 +28425,7 @@
         <v>4</v>
       </c>
       <c r="I785" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="786" spans="1:9">
@@ -28454,7 +28454,7 @@
         <v>4</v>
       </c>
       <c r="I786" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="787" spans="1:9">
@@ -28483,7 +28483,7 @@
         <v>4</v>
       </c>
       <c r="I787" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="788" spans="1:9">
@@ -28512,7 +28512,7 @@
         <v>4</v>
       </c>
       <c r="I788" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="789" spans="1:9">
@@ -28541,7 +28541,7 @@
         <v>4</v>
       </c>
       <c r="I789" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="790" spans="1:9">
@@ -28570,7 +28570,7 @@
         <v>4</v>
       </c>
       <c r="I790" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="791" spans="1:9">
@@ -28599,7 +28599,7 @@
         <v>4</v>
       </c>
       <c r="I791" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="792" spans="1:9">
@@ -28628,7 +28628,7 @@
         <v>4</v>
       </c>
       <c r="I792" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="793" spans="1:9">
@@ -28657,7 +28657,7 @@
         <v>4</v>
       </c>
       <c r="I793" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="794" spans="1:9">
@@ -28686,7 +28686,7 @@
         <v>4</v>
       </c>
       <c r="I794" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="795" spans="1:9">
@@ -28715,7 +28715,7 @@
         <v>4</v>
       </c>
       <c r="I795" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="796" spans="1:9">
@@ -28744,7 +28744,7 @@
         <v>4</v>
       </c>
       <c r="I796" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="797" spans="1:9">
@@ -28773,7 +28773,7 @@
         <v>4</v>
       </c>
       <c r="I797" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="798" spans="1:9">
@@ -28802,7 +28802,7 @@
         <v>4</v>
       </c>
       <c r="I798" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="799" spans="1:9">
@@ -28831,7 +28831,7 @@
         <v>4</v>
       </c>
       <c r="I799" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="800" spans="1:9">
@@ -28860,7 +28860,7 @@
         <v>4</v>
       </c>
       <c r="I800" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="801" spans="1:9">
@@ -28889,7 +28889,7 @@
         <v>4</v>
       </c>
       <c r="I801" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="802" spans="1:9">
@@ -28918,7 +28918,7 @@
         <v>4</v>
       </c>
       <c r="I802" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="803" spans="1:9">
@@ -28947,7 +28947,7 @@
         <v>4</v>
       </c>
       <c r="I803" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="804" spans="1:9">
@@ -28976,7 +28976,7 @@
         <v>4</v>
       </c>
       <c r="I804" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="805" spans="1:9">
@@ -29005,7 +29005,7 @@
         <v>4</v>
       </c>
       <c r="I805" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="806" spans="1:9">
@@ -29034,7 +29034,7 @@
         <v>4</v>
       </c>
       <c r="I806" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="807" spans="1:9">
@@ -29063,7 +29063,7 @@
         <v>4</v>
       </c>
       <c r="I807" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="808" spans="1:9">
@@ -29092,7 +29092,7 @@
         <v>4</v>
       </c>
       <c r="I808" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="809" spans="1:9">
@@ -29121,7 +29121,7 @@
         <v>4</v>
       </c>
       <c r="I809" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="810" spans="1:9">
@@ -29150,7 +29150,7 @@
         <v>4</v>
       </c>
       <c r="I810" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="811" spans="1:9">
@@ -29179,7 +29179,7 @@
         <v>4</v>
       </c>
       <c r="I811" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="812" spans="1:9">
@@ -29208,7 +29208,7 @@
         <v>4</v>
       </c>
       <c r="I812" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="813" spans="1:9">
@@ -29237,7 +29237,7 @@
         <v>4</v>
       </c>
       <c r="I813" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="814" spans="1:9">
@@ -29266,7 +29266,7 @@
         <v>4</v>
       </c>
       <c r="I814" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="815" spans="1:9">
@@ -29295,7 +29295,7 @@
         <v>4</v>
       </c>
       <c r="I815" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="816" spans="1:9">
@@ -29324,7 +29324,7 @@
         <v>4</v>
       </c>
       <c r="I816" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="817" spans="1:9">
@@ -29353,7 +29353,7 @@
         <v>4</v>
       </c>
       <c r="I817" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="818" spans="1:9">
@@ -29382,7 +29382,7 @@
         <v>4</v>
       </c>
       <c r="I818" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="819" spans="1:9">
@@ -29411,7 +29411,7 @@
         <v>4</v>
       </c>
       <c r="I819" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="820" spans="1:9">
@@ -29440,7 +29440,7 @@
         <v>4</v>
       </c>
       <c r="I820" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="821" spans="1:9">
@@ -29469,7 +29469,7 @@
         <v>4</v>
       </c>
       <c r="I821" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="822" spans="1:9">
@@ -29498,7 +29498,7 @@
         <v>4</v>
       </c>
       <c r="I822" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="823" spans="1:9">
@@ -29527,7 +29527,7 @@
         <v>4</v>
       </c>
       <c r="I823" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="824" spans="1:9">
@@ -29556,7 +29556,7 @@
         <v>4</v>
       </c>
       <c r="I824" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="825" spans="1:9">
@@ -29585,7 +29585,7 @@
         <v>4</v>
       </c>
       <c r="I825" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="826" spans="1:9">
@@ -29614,7 +29614,7 @@
         <v>4</v>
       </c>
       <c r="I826" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="827" spans="1:9">
@@ -29643,7 +29643,7 @@
         <v>4</v>
       </c>
       <c r="I827" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="828" spans="1:9">
@@ -29672,7 +29672,7 @@
         <v>4</v>
       </c>
       <c r="I828" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="829" spans="1:9">
@@ -29701,7 +29701,7 @@
         <v>4</v>
       </c>
       <c r="I829" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="830" spans="1:9">
@@ -29730,7 +29730,7 @@
         <v>4</v>
       </c>
       <c r="I830" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="831" spans="1:9">
@@ -29759,7 +29759,7 @@
         <v>4</v>
       </c>
       <c r="I831" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="832" spans="1:9">
@@ -29788,7 +29788,7 @@
         <v>4</v>
       </c>
       <c r="I832" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="833" spans="1:9">
@@ -29817,7 +29817,7 @@
         <v>4</v>
       </c>
       <c r="I833" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="834" spans="1:9">
@@ -29846,7 +29846,7 @@
         <v>4</v>
       </c>
       <c r="I834" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="835" spans="1:9">
@@ -29875,7 +29875,7 @@
         <v>4</v>
       </c>
       <c r="I835" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="836" spans="1:9">
@@ -29904,7 +29904,7 @@
         <v>4</v>
       </c>
       <c r="I836" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="837" spans="1:9">
@@ -29933,7 +29933,7 @@
         <v>4</v>
       </c>
       <c r="I837" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="838" spans="1:9">
@@ -29962,7 +29962,7 @@
         <v>4</v>
       </c>
       <c r="I838" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="839" spans="1:9">
@@ -29991,7 +29991,7 @@
         <v>4</v>
       </c>
       <c r="I839" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="840" spans="1:9">
@@ -30020,7 +30020,7 @@
         <v>4</v>
       </c>
       <c r="I840" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="841" spans="1:9">
@@ -30049,7 +30049,7 @@
         <v>4</v>
       </c>
       <c r="I841" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="842" spans="1:9">
@@ -30078,7 +30078,7 @@
         <v>4</v>
       </c>
       <c r="I842" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="843" spans="1:9">
@@ -30107,7 +30107,7 @@
         <v>4</v>
       </c>
       <c r="I843" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="844" spans="1:9">
@@ -30136,7 +30136,7 @@
         <v>4</v>
       </c>
       <c r="I844" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="845" spans="1:9">
@@ -30165,7 +30165,7 @@
         <v>4</v>
       </c>
       <c r="I845" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="846" spans="1:9">
@@ -30194,7 +30194,7 @@
         <v>4</v>
       </c>
       <c r="I846" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="847" spans="1:9">
@@ -30223,7 +30223,7 @@
         <v>4</v>
       </c>
       <c r="I847" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="848" spans="1:9">
@@ -30252,7 +30252,7 @@
         <v>4</v>
       </c>
       <c r="I848" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="849" spans="1:9">
@@ -30281,7 +30281,7 @@
         <v>4</v>
       </c>
       <c r="I849" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="850" spans="1:9">
@@ -30310,7 +30310,7 @@
         <v>4</v>
       </c>
       <c r="I850" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="851" spans="1:9">
@@ -30339,7 +30339,7 @@
         <v>4</v>
       </c>
       <c r="I851" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="852" spans="1:9">
@@ -30368,7 +30368,7 @@
         <v>4</v>
       </c>
       <c r="I852" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="853" spans="1:9">
@@ -30397,7 +30397,7 @@
         <v>4</v>
       </c>
       <c r="I853" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="854" spans="1:9">
@@ -30426,7 +30426,7 @@
         <v>4</v>
       </c>
       <c r="I854" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="855" spans="1:9">
@@ -30455,7 +30455,7 @@
         <v>4</v>
       </c>
       <c r="I855" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="856" spans="1:9">
@@ -30484,7 +30484,7 @@
         <v>4</v>
       </c>
       <c r="I856" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="857" spans="1:9">
@@ -30513,7 +30513,7 @@
         <v>4</v>
       </c>
       <c r="I857" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="858" spans="1:9">
@@ -30542,7 +30542,7 @@
         <v>4</v>
       </c>
       <c r="I858" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="859" spans="1:9">
@@ -30571,7 +30571,7 @@
         <v>4</v>
       </c>
       <c r="I859" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="860" spans="1:9">
@@ -30600,7 +30600,7 @@
         <v>4</v>
       </c>
       <c r="I860" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="861" spans="1:9">
@@ -30629,7 +30629,7 @@
         <v>4</v>
       </c>
       <c r="I861" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="862" spans="1:9">
@@ -30658,7 +30658,7 @@
         <v>4</v>
       </c>
       <c r="I862" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="863" spans="1:9">
@@ -30687,7 +30687,7 @@
         <v>4</v>
       </c>
       <c r="I863" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="864" spans="1:9">
@@ -30716,7 +30716,7 @@
         <v>4</v>
       </c>
       <c r="I864" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="865" spans="1:9">
@@ -30745,7 +30745,7 @@
         <v>4</v>
       </c>
       <c r="I865" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="866" spans="1:9">
@@ -30774,7 +30774,7 @@
         <v>4</v>
       </c>
       <c r="I866" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="867" spans="1:9">
@@ -30803,7 +30803,7 @@
         <v>4</v>
       </c>
       <c r="I867" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="868" spans="1:9">
@@ -30832,7 +30832,7 @@
         <v>4</v>
       </c>
       <c r="I868" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="869" spans="1:9">
@@ -30861,7 +30861,7 @@
         <v>4</v>
       </c>
       <c r="I869" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="870" spans="1:9">
@@ -30890,7 +30890,7 @@
         <v>4</v>
       </c>
       <c r="I870" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="871" spans="1:9">
@@ -30919,7 +30919,7 @@
         <v>4</v>
       </c>
       <c r="I871" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="872" spans="1:9">
@@ -30948,7 +30948,7 @@
         <v>4</v>
       </c>
       <c r="I872" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="873" spans="1:9">
@@ -30977,7 +30977,7 @@
         <v>4</v>
       </c>
       <c r="I873" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="874" spans="1:9">
@@ -31006,7 +31006,7 @@
         <v>4</v>
       </c>
       <c r="I874" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="875" spans="1:9">
@@ -31035,7 +31035,7 @@
         <v>4</v>
       </c>
       <c r="I875" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="876" spans="1:9">
@@ -31064,7 +31064,7 @@
         <v>4</v>
       </c>
       <c r="I876" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="877" spans="1:9">
@@ -31093,7 +31093,7 @@
         <v>4</v>
       </c>
       <c r="I877" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="878" spans="1:9">
@@ -31122,7 +31122,7 @@
         <v>4</v>
       </c>
       <c r="I878" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="879" spans="1:9">
@@ -31151,7 +31151,7 @@
         <v>4</v>
       </c>
       <c r="I879" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="880" spans="1:9">
@@ -31180,7 +31180,7 @@
         <v>4</v>
       </c>
       <c r="I880" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="881" spans="1:9">
@@ -31209,7 +31209,7 @@
         <v>4</v>
       </c>
       <c r="I881" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="882" spans="1:9">
@@ -31238,7 +31238,7 @@
         <v>4</v>
       </c>
       <c r="I882" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="883" spans="1:9">
@@ -31267,7 +31267,7 @@
         <v>4</v>
       </c>
       <c r="I883" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="884" spans="1:9">
@@ -31296,7 +31296,7 @@
         <v>4</v>
       </c>
       <c r="I884" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="885" spans="1:9">
@@ -31325,7 +31325,7 @@
         <v>4</v>
       </c>
       <c r="I885" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="886" spans="1:9">
@@ -31354,7 +31354,7 @@
         <v>4</v>
       </c>
       <c r="I886" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="887" spans="1:9">
@@ -31383,7 +31383,7 @@
         <v>4</v>
       </c>
       <c r="I887" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="888" spans="1:9">
@@ -31412,7 +31412,7 @@
         <v>4</v>
       </c>
       <c r="I888" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="889" spans="1:9">
@@ -31441,7 +31441,7 @@
         <v>4</v>
       </c>
       <c r="I889" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="890" spans="1:9">
@@ -31470,7 +31470,7 @@
         <v>4</v>
       </c>
       <c r="I890" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="891" spans="1:9">
@@ -31499,7 +31499,7 @@
         <v>4</v>
       </c>
       <c r="I891" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="892" spans="1:9">
@@ -31528,7 +31528,7 @@
         <v>4</v>
       </c>
       <c r="I892" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="893" spans="1:9">
@@ -31557,7 +31557,7 @@
         <v>4</v>
       </c>
       <c r="I893" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="894" spans="1:9">
@@ -31586,7 +31586,7 @@
         <v>4</v>
       </c>
       <c r="I894" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="895" spans="1:9">
@@ -31615,7 +31615,7 @@
         <v>4</v>
       </c>
       <c r="I895" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="896" spans="1:9">
@@ -31644,7 +31644,7 @@
         <v>4</v>
       </c>
       <c r="I896" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="897" spans="1:9">
@@ -31673,7 +31673,7 @@
         <v>4</v>
       </c>
       <c r="I897" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="898" spans="1:9">
@@ -31702,7 +31702,7 @@
         <v>4</v>
       </c>
       <c r="I898" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="899" spans="1:9">
@@ -31731,7 +31731,7 @@
         <v>4</v>
       </c>
       <c r="I899" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="900" spans="1:9">
@@ -31760,7 +31760,7 @@
         <v>4</v>
       </c>
       <c r="I900" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="901" spans="1:9">
@@ -31789,7 +31789,7 @@
         <v>4</v>
       </c>
       <c r="I901" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="902" spans="1:9">
@@ -31818,7 +31818,7 @@
         <v>4</v>
       </c>
       <c r="I902" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="903" spans="1:9">
@@ -31847,7 +31847,7 @@
         <v>4</v>
       </c>
       <c r="I903" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="904" spans="1:9">
@@ -31876,7 +31876,7 @@
         <v>4</v>
       </c>
       <c r="I904" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="905" spans="1:9">
@@ -31905,7 +31905,7 @@
         <v>4</v>
       </c>
       <c r="I905" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="906" spans="1:9">
@@ -31934,7 +31934,7 @@
         <v>4</v>
       </c>
       <c r="I906" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="907" spans="1:9">
@@ -31963,7 +31963,7 @@
         <v>4</v>
       </c>
       <c r="I907" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="908" spans="1:9">
@@ -31992,7 +31992,7 @@
         <v>4</v>
       </c>
       <c r="I908" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="909" spans="1:9">
@@ -32021,7 +32021,7 @@
         <v>4</v>
       </c>
       <c r="I909" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="910" spans="1:9">
@@ -32050,7 +32050,7 @@
         <v>4</v>
       </c>
       <c r="I910" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="911" spans="1:9">
@@ -32079,7 +32079,7 @@
         <v>4</v>
       </c>
       <c r="I911" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="912" spans="1:9">
@@ -32108,7 +32108,7 @@
         <v>4</v>
       </c>
       <c r="I912" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="913" spans="1:9">
@@ -32137,7 +32137,7 @@
         <v>4</v>
       </c>
       <c r="I913" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="914" spans="1:9">
@@ -32166,7 +32166,7 @@
         <v>4</v>
       </c>
       <c r="I914" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="915" spans="1:9">
@@ -32195,7 +32195,7 @@
         <v>4</v>
       </c>
       <c r="I915" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="916" spans="1:9">
@@ -32224,7 +32224,7 @@
         <v>4</v>
       </c>
       <c r="I916" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="917" spans="1:9">
@@ -32253,7 +32253,7 @@
         <v>4</v>
       </c>
       <c r="I917" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="918" spans="1:9">
@@ -32282,7 +32282,7 @@
         <v>4</v>
       </c>
       <c r="I918" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="919" spans="1:9">
@@ -32311,7 +32311,7 @@
         <v>4</v>
       </c>
       <c r="I919" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="920" spans="1:9">
@@ -32340,7 +32340,7 @@
         <v>4</v>
       </c>
       <c r="I920" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="921" spans="1:9">
@@ -32369,7 +32369,7 @@
         <v>4</v>
       </c>
       <c r="I921" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="922" spans="1:9">
@@ -32398,7 +32398,7 @@
         <v>4</v>
       </c>
       <c r="I922" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="923" spans="1:9">
@@ -32427,7 +32427,7 @@
         <v>4</v>
       </c>
       <c r="I923" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="924" spans="1:9">
@@ -32456,7 +32456,7 @@
         <v>4</v>
       </c>
       <c r="I924" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="925" spans="1:9">
@@ -32485,7 +32485,7 @@
         <v>4</v>
       </c>
       <c r="I925" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="926" spans="1:9">
@@ -32514,7 +32514,7 @@
         <v>4</v>
       </c>
       <c r="I926" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="927" spans="1:9">
@@ -32543,7 +32543,7 @@
         <v>4</v>
       </c>
       <c r="I927" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="928" spans="1:9">
@@ -32572,7 +32572,7 @@
         <v>4</v>
       </c>
       <c r="I928" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="929" spans="1:9">
@@ -32601,7 +32601,7 @@
         <v>4</v>
       </c>
       <c r="I929" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="930" spans="1:9">
@@ -32630,7 +32630,7 @@
         <v>4</v>
       </c>
       <c r="I930" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="931" spans="1:9">
@@ -32659,7 +32659,7 @@
         <v>4</v>
       </c>
       <c r="I931" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="932" spans="1:9">
@@ -32688,7 +32688,7 @@
         <v>4</v>
       </c>
       <c r="I932" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="933" spans="1:9">
@@ -32717,7 +32717,7 @@
         <v>4</v>
       </c>
       <c r="I933" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="934" spans="1:9">
@@ -32746,7 +32746,7 @@
         <v>4</v>
       </c>
       <c r="I934" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="935" spans="1:9">
@@ -32775,7 +32775,7 @@
         <v>4</v>
       </c>
       <c r="I935" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
